--- a/data/exchange_rate.xlsx
+++ b/data/exchange_rate.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3427" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3429" uniqueCount="117">
   <si>
     <t>Основные производные показатели динамики обменного курса рубля</t>
   </si>
@@ -364,6 +364,12 @@
   <si>
     <t>Дата обновления: 15.08.2025.</t>
   </si>
+  <si>
+    <t>Янв - Авг</t>
+  </si>
+  <si>
+    <t>Дата обновления: 12.09.2025.</t>
+  </si>
 </sst>
 </file>
 
@@ -475,7 +481,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -511,17 +517,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -623,7 +618,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -653,7 +648,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -662,10 +657,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -769,14 +764,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -793,14 +782,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1106,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IN49"/>
+  <dimension ref="A1:IO49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="IC1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="ID1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -1119,259 +1114,260 @@
     <col min="2" max="229" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:248" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:249" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="64"/>
-      <c r="AO1" s="64"/>
-      <c r="AP1" s="64"/>
-      <c r="AQ1" s="64"/>
-      <c r="AR1" s="64"/>
-      <c r="AS1" s="64"/>
-      <c r="AT1" s="64"/>
-      <c r="AU1" s="64"/>
-      <c r="AV1" s="64"/>
-      <c r="AW1" s="64"/>
-      <c r="AX1" s="64"/>
-      <c r="AY1" s="64"/>
-      <c r="AZ1" s="64"/>
-      <c r="BA1" s="64"/>
-      <c r="BB1" s="64"/>
-      <c r="BC1" s="64"/>
-      <c r="BD1" s="64"/>
-      <c r="BE1" s="64"/>
-      <c r="BF1" s="64"/>
-      <c r="BG1" s="64"/>
-      <c r="BH1" s="64"/>
-      <c r="BI1" s="64"/>
-      <c r="BJ1" s="64"/>
-      <c r="BK1" s="64"/>
-      <c r="BL1" s="64"/>
-      <c r="BM1" s="64"/>
-      <c r="BN1" s="64"/>
-      <c r="BO1" s="64"/>
-      <c r="BP1" s="64"/>
-      <c r="BQ1" s="64"/>
-      <c r="BR1" s="64"/>
-      <c r="BS1" s="64"/>
-      <c r="BT1" s="64"/>
-      <c r="BU1" s="64"/>
-      <c r="BV1" s="64"/>
-      <c r="BW1" s="64"/>
-      <c r="BX1" s="64"/>
-      <c r="BY1" s="64"/>
-      <c r="BZ1" s="64"/>
-      <c r="CA1" s="64"/>
-      <c r="CB1" s="64"/>
-      <c r="CC1" s="64"/>
-      <c r="CD1" s="64"/>
-      <c r="CE1" s="64"/>
-      <c r="CF1" s="64"/>
-      <c r="CG1" s="64"/>
-      <c r="CH1" s="64"/>
-      <c r="CI1" s="64"/>
-      <c r="CJ1" s="64"/>
-      <c r="CK1" s="64"/>
-      <c r="CL1" s="64"/>
-      <c r="CM1" s="64"/>
-      <c r="CN1" s="64"/>
-      <c r="CO1" s="64"/>
-      <c r="CP1" s="64"/>
-      <c r="CQ1" s="64"/>
-      <c r="CR1" s="64"/>
-      <c r="CS1" s="64"/>
-      <c r="CT1" s="64"/>
-      <c r="CU1" s="64"/>
-      <c r="CV1" s="64"/>
-      <c r="CW1" s="64"/>
-      <c r="CX1" s="64"/>
-      <c r="CY1" s="64"/>
-      <c r="CZ1" s="64"/>
-      <c r="DA1" s="64"/>
-      <c r="DB1" s="64"/>
-      <c r="DC1" s="64"/>
-      <c r="DD1" s="64"/>
-      <c r="DE1" s="64"/>
-      <c r="DF1" s="64"/>
-      <c r="DG1" s="64"/>
-      <c r="DH1" s="64"/>
-      <c r="DI1" s="64"/>
-      <c r="DJ1" s="64"/>
-      <c r="DK1" s="64"/>
-      <c r="DL1" s="64"/>
-      <c r="DM1" s="64"/>
-      <c r="DN1" s="64"/>
-      <c r="DO1" s="64"/>
-      <c r="DP1" s="64"/>
-      <c r="DQ1" s="64"/>
-      <c r="DR1" s="64"/>
-      <c r="DS1" s="64"/>
-      <c r="DT1" s="64"/>
-      <c r="DU1" s="64"/>
-      <c r="DV1" s="64"/>
-      <c r="DW1" s="64"/>
-      <c r="DX1" s="64"/>
-      <c r="DY1" s="64"/>
-      <c r="DZ1" s="64"/>
-      <c r="EA1" s="64"/>
-      <c r="EB1" s="64"/>
-      <c r="EC1" s="64"/>
-      <c r="ED1" s="64"/>
-      <c r="EE1" s="64"/>
-      <c r="EF1" s="64"/>
-      <c r="EG1" s="64"/>
-      <c r="EH1" s="64"/>
-      <c r="EI1" s="64"/>
-      <c r="EJ1" s="64"/>
-      <c r="EK1" s="64"/>
-      <c r="EL1" s="64"/>
-      <c r="EM1" s="64"/>
-      <c r="EN1" s="64"/>
-      <c r="EO1" s="64"/>
-      <c r="EP1" s="64"/>
-      <c r="EQ1" s="64"/>
-      <c r="ER1" s="64"/>
-      <c r="ES1" s="64"/>
-      <c r="ET1" s="64"/>
-      <c r="EU1" s="64"/>
-      <c r="EV1" s="64"/>
-      <c r="EW1" s="64"/>
-      <c r="EX1" s="64"/>
-      <c r="EY1" s="64"/>
-      <c r="EZ1" s="64"/>
-      <c r="FA1" s="64"/>
-      <c r="FB1" s="64"/>
-      <c r="FC1" s="64"/>
-      <c r="FD1" s="64"/>
-      <c r="FE1" s="64"/>
-      <c r="FF1" s="64"/>
-      <c r="FG1" s="64"/>
-      <c r="FH1" s="64"/>
-      <c r="FI1" s="64"/>
-      <c r="FJ1" s="64"/>
-      <c r="FK1" s="64"/>
-      <c r="FL1" s="64"/>
-      <c r="FM1" s="64"/>
-      <c r="FN1" s="64"/>
-      <c r="FO1" s="64"/>
-      <c r="FP1" s="64"/>
-      <c r="FQ1" s="64"/>
-      <c r="FR1" s="64"/>
-      <c r="FS1" s="64"/>
-      <c r="FT1" s="64"/>
-      <c r="FU1" s="64"/>
-      <c r="FV1" s="64"/>
-      <c r="FW1" s="64"/>
-      <c r="FX1" s="64"/>
-      <c r="FY1" s="64"/>
-      <c r="FZ1" s="64"/>
-      <c r="GA1" s="64"/>
-      <c r="GB1" s="64"/>
-      <c r="GC1" s="64"/>
-      <c r="GD1" s="64"/>
-      <c r="GE1" s="64"/>
-      <c r="GF1" s="64"/>
-      <c r="GG1" s="64"/>
-      <c r="GH1" s="64"/>
-      <c r="GI1" s="64"/>
-      <c r="GJ1" s="64"/>
-      <c r="GK1" s="64"/>
-      <c r="GL1" s="64"/>
-      <c r="GM1" s="64"/>
-      <c r="GN1" s="64"/>
-      <c r="GO1" s="64"/>
-      <c r="GP1" s="64"/>
-      <c r="GQ1" s="64"/>
-      <c r="GR1" s="64"/>
-      <c r="GS1" s="64"/>
-      <c r="GT1" s="64"/>
-      <c r="GU1" s="64"/>
-      <c r="GV1" s="64"/>
-      <c r="GW1" s="64"/>
-      <c r="GX1" s="64"/>
-      <c r="GY1" s="64"/>
-      <c r="GZ1" s="64"/>
-      <c r="HA1" s="64"/>
-      <c r="HB1" s="64"/>
-      <c r="HC1" s="64"/>
-      <c r="HD1" s="64"/>
-      <c r="HE1" s="64"/>
-      <c r="HF1" s="64"/>
-      <c r="HG1" s="64"/>
-      <c r="HH1" s="64"/>
-      <c r="HI1" s="64"/>
-      <c r="HJ1" s="64"/>
-      <c r="HK1" s="64"/>
-      <c r="HL1" s="64"/>
-      <c r="HM1" s="64"/>
-      <c r="HN1" s="64"/>
-      <c r="HO1" s="64"/>
-      <c r="HP1" s="64"/>
-      <c r="HQ1" s="64"/>
-      <c r="HR1" s="64"/>
-      <c r="HS1" s="64"/>
-      <c r="HT1" s="64"/>
-      <c r="HU1" s="64"/>
-      <c r="HV1" s="64"/>
-      <c r="HW1" s="64"/>
-      <c r="HX1" s="64"/>
-      <c r="HY1" s="64"/>
-      <c r="HZ1" s="64"/>
-      <c r="IA1" s="64"/>
-      <c r="IB1" s="64"/>
-      <c r="IC1" s="64"/>
-      <c r="ID1" s="64"/>
-      <c r="IE1" s="64"/>
-      <c r="IF1" s="64"/>
-      <c r="IG1" s="64"/>
-      <c r="IH1" s="64"/>
-      <c r="II1" s="64"/>
-      <c r="IJ1" s="64"/>
-      <c r="IK1" s="64"/>
-      <c r="IL1" s="64"/>
-      <c r="IM1" s="64"/>
-      <c r="IN1" s="64"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="62"/>
+      <c r="AW1" s="62"/>
+      <c r="AX1" s="62"/>
+      <c r="AY1" s="62"/>
+      <c r="AZ1" s="62"/>
+      <c r="BA1" s="62"/>
+      <c r="BB1" s="62"/>
+      <c r="BC1" s="62"/>
+      <c r="BD1" s="62"/>
+      <c r="BE1" s="62"/>
+      <c r="BF1" s="62"/>
+      <c r="BG1" s="62"/>
+      <c r="BH1" s="62"/>
+      <c r="BI1" s="62"/>
+      <c r="BJ1" s="62"/>
+      <c r="BK1" s="62"/>
+      <c r="BL1" s="62"/>
+      <c r="BM1" s="62"/>
+      <c r="BN1" s="62"/>
+      <c r="BO1" s="62"/>
+      <c r="BP1" s="62"/>
+      <c r="BQ1" s="62"/>
+      <c r="BR1" s="62"/>
+      <c r="BS1" s="62"/>
+      <c r="BT1" s="62"/>
+      <c r="BU1" s="62"/>
+      <c r="BV1" s="62"/>
+      <c r="BW1" s="62"/>
+      <c r="BX1" s="62"/>
+      <c r="BY1" s="62"/>
+      <c r="BZ1" s="62"/>
+      <c r="CA1" s="62"/>
+      <c r="CB1" s="62"/>
+      <c r="CC1" s="62"/>
+      <c r="CD1" s="62"/>
+      <c r="CE1" s="62"/>
+      <c r="CF1" s="62"/>
+      <c r="CG1" s="62"/>
+      <c r="CH1" s="62"/>
+      <c r="CI1" s="62"/>
+      <c r="CJ1" s="62"/>
+      <c r="CK1" s="62"/>
+      <c r="CL1" s="62"/>
+      <c r="CM1" s="62"/>
+      <c r="CN1" s="62"/>
+      <c r="CO1" s="62"/>
+      <c r="CP1" s="62"/>
+      <c r="CQ1" s="62"/>
+      <c r="CR1" s="62"/>
+      <c r="CS1" s="62"/>
+      <c r="CT1" s="62"/>
+      <c r="CU1" s="62"/>
+      <c r="CV1" s="62"/>
+      <c r="CW1" s="62"/>
+      <c r="CX1" s="62"/>
+      <c r="CY1" s="62"/>
+      <c r="CZ1" s="62"/>
+      <c r="DA1" s="62"/>
+      <c r="DB1" s="62"/>
+      <c r="DC1" s="62"/>
+      <c r="DD1" s="62"/>
+      <c r="DE1" s="62"/>
+      <c r="DF1" s="62"/>
+      <c r="DG1" s="62"/>
+      <c r="DH1" s="62"/>
+      <c r="DI1" s="62"/>
+      <c r="DJ1" s="62"/>
+      <c r="DK1" s="62"/>
+      <c r="DL1" s="62"/>
+      <c r="DM1" s="62"/>
+      <c r="DN1" s="62"/>
+      <c r="DO1" s="62"/>
+      <c r="DP1" s="62"/>
+      <c r="DQ1" s="62"/>
+      <c r="DR1" s="62"/>
+      <c r="DS1" s="62"/>
+      <c r="DT1" s="62"/>
+      <c r="DU1" s="62"/>
+      <c r="DV1" s="62"/>
+      <c r="DW1" s="62"/>
+      <c r="DX1" s="62"/>
+      <c r="DY1" s="62"/>
+      <c r="DZ1" s="62"/>
+      <c r="EA1" s="62"/>
+      <c r="EB1" s="62"/>
+      <c r="EC1" s="62"/>
+      <c r="ED1" s="62"/>
+      <c r="EE1" s="62"/>
+      <c r="EF1" s="62"/>
+      <c r="EG1" s="62"/>
+      <c r="EH1" s="62"/>
+      <c r="EI1" s="62"/>
+      <c r="EJ1" s="62"/>
+      <c r="EK1" s="62"/>
+      <c r="EL1" s="62"/>
+      <c r="EM1" s="62"/>
+      <c r="EN1" s="62"/>
+      <c r="EO1" s="62"/>
+      <c r="EP1" s="62"/>
+      <c r="EQ1" s="62"/>
+      <c r="ER1" s="62"/>
+      <c r="ES1" s="62"/>
+      <c r="ET1" s="62"/>
+      <c r="EU1" s="62"/>
+      <c r="EV1" s="62"/>
+      <c r="EW1" s="62"/>
+      <c r="EX1" s="62"/>
+      <c r="EY1" s="62"/>
+      <c r="EZ1" s="62"/>
+      <c r="FA1" s="62"/>
+      <c r="FB1" s="62"/>
+      <c r="FC1" s="62"/>
+      <c r="FD1" s="62"/>
+      <c r="FE1" s="62"/>
+      <c r="FF1" s="62"/>
+      <c r="FG1" s="62"/>
+      <c r="FH1" s="62"/>
+      <c r="FI1" s="62"/>
+      <c r="FJ1" s="62"/>
+      <c r="FK1" s="62"/>
+      <c r="FL1" s="62"/>
+      <c r="FM1" s="62"/>
+      <c r="FN1" s="62"/>
+      <c r="FO1" s="62"/>
+      <c r="FP1" s="62"/>
+      <c r="FQ1" s="62"/>
+      <c r="FR1" s="62"/>
+      <c r="FS1" s="62"/>
+      <c r="FT1" s="62"/>
+      <c r="FU1" s="62"/>
+      <c r="FV1" s="62"/>
+      <c r="FW1" s="62"/>
+      <c r="FX1" s="62"/>
+      <c r="FY1" s="62"/>
+      <c r="FZ1" s="62"/>
+      <c r="GA1" s="62"/>
+      <c r="GB1" s="62"/>
+      <c r="GC1" s="62"/>
+      <c r="GD1" s="62"/>
+      <c r="GE1" s="62"/>
+      <c r="GF1" s="62"/>
+      <c r="GG1" s="62"/>
+      <c r="GH1" s="62"/>
+      <c r="GI1" s="62"/>
+      <c r="GJ1" s="62"/>
+      <c r="GK1" s="62"/>
+      <c r="GL1" s="62"/>
+      <c r="GM1" s="62"/>
+      <c r="GN1" s="62"/>
+      <c r="GO1" s="62"/>
+      <c r="GP1" s="62"/>
+      <c r="GQ1" s="62"/>
+      <c r="GR1" s="62"/>
+      <c r="GS1" s="62"/>
+      <c r="GT1" s="62"/>
+      <c r="GU1" s="62"/>
+      <c r="GV1" s="62"/>
+      <c r="GW1" s="62"/>
+      <c r="GX1" s="62"/>
+      <c r="GY1" s="62"/>
+      <c r="GZ1" s="62"/>
+      <c r="HA1" s="62"/>
+      <c r="HB1" s="62"/>
+      <c r="HC1" s="62"/>
+      <c r="HD1" s="62"/>
+      <c r="HE1" s="62"/>
+      <c r="HF1" s="62"/>
+      <c r="HG1" s="62"/>
+      <c r="HH1" s="62"/>
+      <c r="HI1" s="62"/>
+      <c r="HJ1" s="62"/>
+      <c r="HK1" s="62"/>
+      <c r="HL1" s="62"/>
+      <c r="HM1" s="62"/>
+      <c r="HN1" s="62"/>
+      <c r="HO1" s="62"/>
+      <c r="HP1" s="62"/>
+      <c r="HQ1" s="62"/>
+      <c r="HR1" s="62"/>
+      <c r="HS1" s="62"/>
+      <c r="HT1" s="62"/>
+      <c r="HU1" s="62"/>
+      <c r="HV1" s="62"/>
+      <c r="HW1" s="62"/>
+      <c r="HX1" s="62"/>
+      <c r="HY1" s="62"/>
+      <c r="HZ1" s="62"/>
+      <c r="IA1" s="62"/>
+      <c r="IB1" s="62"/>
+      <c r="IC1" s="62"/>
+      <c r="ID1" s="62"/>
+      <c r="IE1" s="62"/>
+      <c r="IF1" s="62"/>
+      <c r="IG1" s="62"/>
+      <c r="IH1" s="62"/>
+      <c r="II1" s="62"/>
+      <c r="IJ1" s="62"/>
+      <c r="IK1" s="62"/>
+      <c r="IL1" s="62"/>
+      <c r="IM1" s="62"/>
+      <c r="IN1" s="62"/>
+      <c r="IO1" s="62"/>
     </row>
-    <row r="2" spans="1:248" s="52" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:249" s="52" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53"/>
       <c r="B2" s="54">
         <v>2005</v>
@@ -2114,8 +2110,11 @@
       <c r="IN2" s="54">
         <v>2025</v>
       </c>
+      <c r="IO2" s="54">
+        <v>2025</v>
+      </c>
     </row>
-    <row r="3" spans="1:248" s="52" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:249" s="52" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="55"/>
       <c r="B3" s="54" t="s">
         <v>24</v>
@@ -2858,8 +2857,11 @@
       <c r="IN3" s="54" t="s">
         <v>95</v>
       </c>
+      <c r="IO3" s="54" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="4" spans="1:248" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="61" t="s">
         <v>1</v>
@@ -3110,8 +3112,9 @@
       <c r="IL4" s="61"/>
       <c r="IM4" s="61"/>
       <c r="IN4" s="61"/>
+      <c r="IO4" s="61"/>
     </row>
-    <row r="5" spans="1:248" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -3856,8 +3859,11 @@
       <c r="IN5" s="10">
         <v>81.834699999999998</v>
       </c>
+      <c r="IO5" s="10">
+        <v>80.331599999999995</v>
+      </c>
     </row>
-    <row r="6" spans="1:248" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -4602,8 +4608,11 @@
       <c r="IN6" s="10">
         <v>94.951400000000007</v>
       </c>
+      <c r="IO6" s="10">
+        <v>94.047899999999998</v>
+      </c>
     </row>
-    <row r="7" spans="1:248" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -5348,8 +5357,11 @@
       <c r="IN7" s="10">
         <v>11.3683</v>
       </c>
+      <c r="IO7" s="10">
+        <v>11.2713</v>
+      </c>
     </row>
-    <row r="8" spans="1:248" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -6094,8 +6106,11 @@
       <c r="IN8" s="10">
         <v>78.733699999999999</v>
       </c>
+      <c r="IO8" s="10">
+        <v>80.157399999999996</v>
+      </c>
     </row>
-    <row r="9" spans="1:248" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>7</v>
       </c>
@@ -6840,8 +6855,11 @@
       <c r="IN9" s="10">
         <v>92.245900000000006</v>
       </c>
+      <c r="IO9" s="10">
+        <v>93.151799999999994</v>
+      </c>
     </row>
-    <row r="10" spans="1:248" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
@@ -7586,8 +7604,11 @@
       <c r="IN10" s="10">
         <v>10.9627</v>
       </c>
+      <c r="IO10" s="10">
+        <v>11.132300000000001</v>
+      </c>
     </row>
-    <row r="11" spans="1:248" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>9</v>
       </c>
@@ -8327,13 +8348,16 @@
         <v>88.405299999999997</v>
       </c>
       <c r="IM11" s="10">
-        <v>86.711628820002716</v>
+        <v>86.711600000000004</v>
       </c>
       <c r="IN11" s="10">
         <v>85.524199999999993</v>
       </c>
+      <c r="IO11" s="10">
+        <v>84.834199999999996</v>
+      </c>
     </row>
-    <row r="12" spans="1:248" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>10</v>
       </c>
@@ -9073,13 +9097,16 @@
         <v>95.718299999999999</v>
       </c>
       <c r="IM12" s="10">
-        <v>94.819010474115785</v>
+        <v>94.819000000000003</v>
       </c>
       <c r="IN12" s="10">
         <v>94.447100000000006</v>
       </c>
+      <c r="IO12" s="10">
+        <v>94.284199999999998</v>
+      </c>
     </row>
-    <row r="13" spans="1:248" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>12</v>
       </c>
@@ -9819,265 +9846,269 @@
         <v>12.077400000000001</v>
       </c>
       <c r="IM13" s="10">
-        <v>11.87786702331001</v>
+        <v>11.8779</v>
       </c>
       <c r="IN13" s="10">
         <v>11.742599999999999</v>
       </c>
+      <c r="IO13" s="10">
+        <v>11.6645</v>
+      </c>
     </row>
-    <row r="14" spans="1:248" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="62"/>
-      <c r="AB14" s="62"/>
-      <c r="AC14" s="62"/>
-      <c r="AD14" s="62"/>
-      <c r="AE14" s="62"/>
-      <c r="AF14" s="62"/>
-      <c r="AG14" s="62"/>
-      <c r="AH14" s="62"/>
-      <c r="AI14" s="62"/>
-      <c r="AJ14" s="62"/>
-      <c r="AK14" s="62"/>
-      <c r="AL14" s="62"/>
-      <c r="AM14" s="62"/>
-      <c r="AN14" s="62"/>
-      <c r="AO14" s="62"/>
-      <c r="AP14" s="62"/>
-      <c r="AQ14" s="62"/>
-      <c r="AR14" s="62"/>
-      <c r="AS14" s="62"/>
-      <c r="AT14" s="62"/>
-      <c r="AU14" s="62"/>
-      <c r="AV14" s="62"/>
-      <c r="AW14" s="62"/>
-      <c r="AX14" s="62"/>
-      <c r="AY14" s="62"/>
-      <c r="AZ14" s="62"/>
-      <c r="BA14" s="62"/>
-      <c r="BB14" s="62"/>
-      <c r="BC14" s="62"/>
-      <c r="BD14" s="62"/>
-      <c r="BE14" s="62"/>
-      <c r="BF14" s="62"/>
-      <c r="BG14" s="62"/>
-      <c r="BH14" s="62"/>
-      <c r="BI14" s="62"/>
-      <c r="BJ14" s="62"/>
-      <c r="BK14" s="62"/>
-      <c r="BL14" s="62"/>
-      <c r="BM14" s="62"/>
-      <c r="BN14" s="62"/>
-      <c r="BO14" s="62"/>
-      <c r="BP14" s="62"/>
-      <c r="BQ14" s="62"/>
-      <c r="BR14" s="62"/>
-      <c r="BS14" s="62"/>
-      <c r="BT14" s="62"/>
-      <c r="BU14" s="62"/>
-      <c r="BV14" s="62"/>
-      <c r="BW14" s="62"/>
-      <c r="BX14" s="62"/>
-      <c r="BY14" s="62"/>
-      <c r="BZ14" s="62"/>
-      <c r="CA14" s="62"/>
-      <c r="CB14" s="62"/>
-      <c r="CC14" s="62"/>
-      <c r="CD14" s="62"/>
-      <c r="CE14" s="62"/>
-      <c r="CF14" s="62"/>
-      <c r="CG14" s="62"/>
-      <c r="CH14" s="62"/>
-      <c r="CI14" s="62"/>
-      <c r="CJ14" s="62"/>
-      <c r="CK14" s="62"/>
-      <c r="CL14" s="62"/>
-      <c r="CM14" s="62"/>
-      <c r="CN14" s="62"/>
-      <c r="CO14" s="62"/>
-      <c r="CP14" s="62"/>
-      <c r="CQ14" s="62"/>
-      <c r="CR14" s="62"/>
-      <c r="CS14" s="62"/>
-      <c r="CT14" s="62"/>
-      <c r="CU14" s="62"/>
-      <c r="CV14" s="62"/>
-      <c r="CW14" s="62"/>
-      <c r="CX14" s="62"/>
-      <c r="CY14" s="62"/>
-      <c r="CZ14" s="62"/>
-      <c r="DA14" s="62"/>
-      <c r="DB14" s="62"/>
-      <c r="DC14" s="62"/>
-      <c r="DD14" s="62"/>
-      <c r="DE14" s="62"/>
-      <c r="DF14" s="62"/>
-      <c r="DG14" s="62"/>
-      <c r="DH14" s="62"/>
-      <c r="DI14" s="62"/>
-      <c r="DJ14" s="62"/>
-      <c r="DK14" s="62"/>
-      <c r="DL14" s="62"/>
-      <c r="DM14" s="62"/>
-      <c r="DN14" s="62"/>
-      <c r="DO14" s="62"/>
-      <c r="DP14" s="62"/>
-      <c r="DQ14" s="62"/>
-      <c r="DR14" s="62"/>
-      <c r="DS14" s="62"/>
-      <c r="DT14" s="62"/>
-      <c r="DU14" s="62"/>
-      <c r="DV14" s="62"/>
-      <c r="DW14" s="62"/>
-      <c r="DX14" s="62"/>
-      <c r="DY14" s="62"/>
-      <c r="DZ14" s="62"/>
-      <c r="EA14" s="62"/>
-      <c r="EB14" s="62"/>
-      <c r="EC14" s="62"/>
-      <c r="ED14" s="62"/>
-      <c r="EE14" s="62"/>
-      <c r="EF14" s="62"/>
-      <c r="EG14" s="62"/>
-      <c r="EH14" s="62"/>
-      <c r="EI14" s="62"/>
-      <c r="EJ14" s="62"/>
-      <c r="EK14" s="62"/>
-      <c r="EL14" s="62"/>
-      <c r="EM14" s="62"/>
-      <c r="EN14" s="62"/>
-      <c r="EO14" s="62"/>
-      <c r="EP14" s="62"/>
-      <c r="EQ14" s="62"/>
-      <c r="ER14" s="62"/>
-      <c r="ES14" s="62"/>
-      <c r="ET14" s="62"/>
-      <c r="EU14" s="62"/>
-      <c r="EV14" s="62"/>
-      <c r="EW14" s="62"/>
-      <c r="EX14" s="62"/>
-      <c r="EY14" s="62"/>
-      <c r="EZ14" s="62"/>
-      <c r="FA14" s="62"/>
-      <c r="FB14" s="62"/>
-      <c r="FC14" s="62"/>
-      <c r="FD14" s="62"/>
-      <c r="FE14" s="62"/>
-      <c r="FF14" s="62"/>
-      <c r="FG14" s="62"/>
-      <c r="FH14" s="62"/>
-      <c r="FI14" s="62"/>
-      <c r="FJ14" s="62"/>
-      <c r="FK14" s="62"/>
-      <c r="FL14" s="62"/>
-      <c r="FM14" s="62"/>
-      <c r="FN14" s="62"/>
-      <c r="FO14" s="62"/>
-      <c r="FP14" s="62"/>
-      <c r="FQ14" s="62"/>
-      <c r="FR14" s="62"/>
-      <c r="FS14" s="62"/>
-      <c r="FT14" s="62"/>
-      <c r="FU14" s="62"/>
-      <c r="FV14" s="62"/>
-      <c r="FW14" s="62"/>
-      <c r="FX14" s="62"/>
-      <c r="FY14" s="62"/>
-      <c r="FZ14" s="62"/>
-      <c r="GA14" s="62"/>
-      <c r="GB14" s="62"/>
-      <c r="GC14" s="62"/>
-      <c r="GD14" s="62"/>
-      <c r="GE14" s="62"/>
-      <c r="GF14" s="62"/>
-      <c r="GG14" s="62"/>
-      <c r="GH14" s="62"/>
-      <c r="GI14" s="62"/>
-      <c r="GJ14" s="62"/>
-      <c r="GK14" s="62"/>
-      <c r="GL14" s="62"/>
-      <c r="GM14" s="62"/>
-      <c r="GN14" s="62"/>
-      <c r="GO14" s="62"/>
-      <c r="GP14" s="62"/>
-      <c r="GQ14" s="62"/>
-      <c r="GR14" s="62"/>
-      <c r="GS14" s="62"/>
-      <c r="GT14" s="62"/>
-      <c r="GU14" s="62"/>
-      <c r="GV14" s="62"/>
-      <c r="GW14" s="62"/>
-      <c r="GX14" s="62"/>
-      <c r="GY14" s="62"/>
-      <c r="GZ14" s="62"/>
-      <c r="HA14" s="62"/>
-      <c r="HB14" s="62"/>
-      <c r="HC14" s="62"/>
-      <c r="HD14" s="62"/>
-      <c r="HE14" s="62"/>
-      <c r="HF14" s="62"/>
-      <c r="HG14" s="62"/>
-      <c r="HH14" s="62"/>
-      <c r="HI14" s="62"/>
-      <c r="HJ14" s="62"/>
-      <c r="HK14" s="62"/>
-      <c r="HL14" s="62"/>
-      <c r="HM14" s="62"/>
-      <c r="HN14" s="62"/>
-      <c r="HO14" s="62"/>
-      <c r="HP14" s="62"/>
-      <c r="HQ14" s="62"/>
-      <c r="HR14" s="62"/>
-      <c r="HS14" s="62"/>
-      <c r="HT14" s="62"/>
-      <c r="HU14" s="62"/>
-      <c r="HV14" s="62"/>
-      <c r="HW14" s="62"/>
-      <c r="HX14" s="62"/>
-      <c r="HY14" s="62"/>
-      <c r="HZ14" s="62"/>
-      <c r="IA14" s="62"/>
-      <c r="IB14" s="62"/>
-      <c r="IC14" s="62"/>
-      <c r="ID14" s="62"/>
-      <c r="IE14" s="62"/>
-      <c r="IF14" s="62"/>
-      <c r="IG14" s="62"/>
-      <c r="IH14" s="62"/>
-      <c r="II14" s="62"/>
-      <c r="IJ14" s="62"/>
-      <c r="IK14" s="62"/>
-      <c r="IL14" s="62"/>
-      <c r="IM14" s="62"/>
-      <c r="IN14" s="62"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="70"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="70"/>
+      <c r="W14" s="70"/>
+      <c r="X14" s="70"/>
+      <c r="Y14" s="70"/>
+      <c r="Z14" s="70"/>
+      <c r="AA14" s="70"/>
+      <c r="AB14" s="70"/>
+      <c r="AC14" s="70"/>
+      <c r="AD14" s="70"/>
+      <c r="AE14" s="70"/>
+      <c r="AF14" s="70"/>
+      <c r="AG14" s="70"/>
+      <c r="AH14" s="70"/>
+      <c r="AI14" s="70"/>
+      <c r="AJ14" s="70"/>
+      <c r="AK14" s="70"/>
+      <c r="AL14" s="70"/>
+      <c r="AM14" s="70"/>
+      <c r="AN14" s="70"/>
+      <c r="AO14" s="70"/>
+      <c r="AP14" s="70"/>
+      <c r="AQ14" s="70"/>
+      <c r="AR14" s="70"/>
+      <c r="AS14" s="70"/>
+      <c r="AT14" s="70"/>
+      <c r="AU14" s="70"/>
+      <c r="AV14" s="70"/>
+      <c r="AW14" s="70"/>
+      <c r="AX14" s="70"/>
+      <c r="AY14" s="70"/>
+      <c r="AZ14" s="70"/>
+      <c r="BA14" s="70"/>
+      <c r="BB14" s="70"/>
+      <c r="BC14" s="70"/>
+      <c r="BD14" s="70"/>
+      <c r="BE14" s="70"/>
+      <c r="BF14" s="70"/>
+      <c r="BG14" s="70"/>
+      <c r="BH14" s="70"/>
+      <c r="BI14" s="70"/>
+      <c r="BJ14" s="70"/>
+      <c r="BK14" s="70"/>
+      <c r="BL14" s="70"/>
+      <c r="BM14" s="70"/>
+      <c r="BN14" s="70"/>
+      <c r="BO14" s="70"/>
+      <c r="BP14" s="70"/>
+      <c r="BQ14" s="70"/>
+      <c r="BR14" s="70"/>
+      <c r="BS14" s="70"/>
+      <c r="BT14" s="70"/>
+      <c r="BU14" s="70"/>
+      <c r="BV14" s="70"/>
+      <c r="BW14" s="70"/>
+      <c r="BX14" s="70"/>
+      <c r="BY14" s="70"/>
+      <c r="BZ14" s="70"/>
+      <c r="CA14" s="70"/>
+      <c r="CB14" s="70"/>
+      <c r="CC14" s="70"/>
+      <c r="CD14" s="70"/>
+      <c r="CE14" s="70"/>
+      <c r="CF14" s="70"/>
+      <c r="CG14" s="70"/>
+      <c r="CH14" s="70"/>
+      <c r="CI14" s="70"/>
+      <c r="CJ14" s="70"/>
+      <c r="CK14" s="70"/>
+      <c r="CL14" s="70"/>
+      <c r="CM14" s="70"/>
+      <c r="CN14" s="70"/>
+      <c r="CO14" s="70"/>
+      <c r="CP14" s="70"/>
+      <c r="CQ14" s="70"/>
+      <c r="CR14" s="70"/>
+      <c r="CS14" s="70"/>
+      <c r="CT14" s="70"/>
+      <c r="CU14" s="70"/>
+      <c r="CV14" s="70"/>
+      <c r="CW14" s="70"/>
+      <c r="CX14" s="70"/>
+      <c r="CY14" s="70"/>
+      <c r="CZ14" s="70"/>
+      <c r="DA14" s="70"/>
+      <c r="DB14" s="70"/>
+      <c r="DC14" s="70"/>
+      <c r="DD14" s="70"/>
+      <c r="DE14" s="70"/>
+      <c r="DF14" s="70"/>
+      <c r="DG14" s="70"/>
+      <c r="DH14" s="70"/>
+      <c r="DI14" s="70"/>
+      <c r="DJ14" s="70"/>
+      <c r="DK14" s="70"/>
+      <c r="DL14" s="70"/>
+      <c r="DM14" s="70"/>
+      <c r="DN14" s="70"/>
+      <c r="DO14" s="70"/>
+      <c r="DP14" s="70"/>
+      <c r="DQ14" s="70"/>
+      <c r="DR14" s="70"/>
+      <c r="DS14" s="70"/>
+      <c r="DT14" s="70"/>
+      <c r="DU14" s="70"/>
+      <c r="DV14" s="70"/>
+      <c r="DW14" s="70"/>
+      <c r="DX14" s="70"/>
+      <c r="DY14" s="70"/>
+      <c r="DZ14" s="70"/>
+      <c r="EA14" s="70"/>
+      <c r="EB14" s="70"/>
+      <c r="EC14" s="70"/>
+      <c r="ED14" s="70"/>
+      <c r="EE14" s="70"/>
+      <c r="EF14" s="70"/>
+      <c r="EG14" s="70"/>
+      <c r="EH14" s="70"/>
+      <c r="EI14" s="70"/>
+      <c r="EJ14" s="70"/>
+      <c r="EK14" s="70"/>
+      <c r="EL14" s="70"/>
+      <c r="EM14" s="70"/>
+      <c r="EN14" s="70"/>
+      <c r="EO14" s="70"/>
+      <c r="EP14" s="70"/>
+      <c r="EQ14" s="70"/>
+      <c r="ER14" s="70"/>
+      <c r="ES14" s="70"/>
+      <c r="ET14" s="70"/>
+      <c r="EU14" s="70"/>
+      <c r="EV14" s="70"/>
+      <c r="EW14" s="70"/>
+      <c r="EX14" s="70"/>
+      <c r="EY14" s="70"/>
+      <c r="EZ14" s="70"/>
+      <c r="FA14" s="70"/>
+      <c r="FB14" s="70"/>
+      <c r="FC14" s="70"/>
+      <c r="FD14" s="70"/>
+      <c r="FE14" s="70"/>
+      <c r="FF14" s="70"/>
+      <c r="FG14" s="70"/>
+      <c r="FH14" s="70"/>
+      <c r="FI14" s="70"/>
+      <c r="FJ14" s="70"/>
+      <c r="FK14" s="70"/>
+      <c r="FL14" s="70"/>
+      <c r="FM14" s="70"/>
+      <c r="FN14" s="70"/>
+      <c r="FO14" s="70"/>
+      <c r="FP14" s="70"/>
+      <c r="FQ14" s="70"/>
+      <c r="FR14" s="70"/>
+      <c r="FS14" s="70"/>
+      <c r="FT14" s="70"/>
+      <c r="FU14" s="70"/>
+      <c r="FV14" s="70"/>
+      <c r="FW14" s="70"/>
+      <c r="FX14" s="70"/>
+      <c r="FY14" s="70"/>
+      <c r="FZ14" s="70"/>
+      <c r="GA14" s="70"/>
+      <c r="GB14" s="70"/>
+      <c r="GC14" s="70"/>
+      <c r="GD14" s="70"/>
+      <c r="GE14" s="70"/>
+      <c r="GF14" s="70"/>
+      <c r="GG14" s="70"/>
+      <c r="GH14" s="70"/>
+      <c r="GI14" s="70"/>
+      <c r="GJ14" s="70"/>
+      <c r="GK14" s="70"/>
+      <c r="GL14" s="70"/>
+      <c r="GM14" s="70"/>
+      <c r="GN14" s="70"/>
+      <c r="GO14" s="70"/>
+      <c r="GP14" s="70"/>
+      <c r="GQ14" s="70"/>
+      <c r="GR14" s="70"/>
+      <c r="GS14" s="70"/>
+      <c r="GT14" s="70"/>
+      <c r="GU14" s="70"/>
+      <c r="GV14" s="70"/>
+      <c r="GW14" s="70"/>
+      <c r="GX14" s="70"/>
+      <c r="GY14" s="70"/>
+      <c r="GZ14" s="70"/>
+      <c r="HA14" s="70"/>
+      <c r="HB14" s="70"/>
+      <c r="HC14" s="70"/>
+      <c r="HD14" s="70"/>
+      <c r="HE14" s="70"/>
+      <c r="HF14" s="70"/>
+      <c r="HG14" s="70"/>
+      <c r="HH14" s="70"/>
+      <c r="HI14" s="70"/>
+      <c r="HJ14" s="70"/>
+      <c r="HK14" s="70"/>
+      <c r="HL14" s="70"/>
+      <c r="HM14" s="70"/>
+      <c r="HN14" s="70"/>
+      <c r="HO14" s="70"/>
+      <c r="HP14" s="70"/>
+      <c r="HQ14" s="70"/>
+      <c r="HR14" s="70"/>
+      <c r="HS14" s="70"/>
+      <c r="HT14" s="70"/>
+      <c r="HU14" s="70"/>
+      <c r="HV14" s="70"/>
+      <c r="HW14" s="70"/>
+      <c r="HX14" s="70"/>
+      <c r="HY14" s="70"/>
+      <c r="HZ14" s="70"/>
+      <c r="IA14" s="70"/>
+      <c r="IB14" s="70"/>
+      <c r="IC14" s="70"/>
+      <c r="ID14" s="70"/>
+      <c r="IE14" s="70"/>
+      <c r="IF14" s="70"/>
+      <c r="IG14" s="70"/>
+      <c r="IH14" s="70"/>
+      <c r="II14" s="70"/>
+      <c r="IJ14" s="70"/>
+      <c r="IK14" s="70"/>
+      <c r="IL14" s="70"/>
+      <c r="IM14" s="70"/>
+      <c r="IN14" s="70"/>
+      <c r="IO14" s="70"/>
     </row>
-    <row r="15" spans="1:248" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>13</v>
       </c>
@@ -10822,8 +10853,11 @@
       <c r="IN15" s="27">
         <v>30.1</v>
       </c>
+      <c r="IO15" s="27">
+        <v>27.8</v>
+      </c>
     </row>
-    <row r="16" spans="1:248" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>14</v>
       </c>
@@ -11568,8 +11602,11 @@
       <c r="IN16" s="27">
         <v>16.899999999999999</v>
       </c>
+      <c r="IO16" s="27">
+        <v>15.8</v>
+      </c>
     </row>
-    <row r="17" spans="1:248" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>15</v>
       </c>
@@ -12314,8 +12351,11 @@
       <c r="IN17" s="27">
         <v>26.8</v>
       </c>
+      <c r="IO17" s="27">
+        <v>24.9</v>
+      </c>
     </row>
-    <row r="18" spans="1:248" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>104</v>
       </c>
@@ -13060,8 +13100,11 @@
       <c r="IN18" s="27">
         <v>27</v>
       </c>
+      <c r="IO18" s="27">
+        <v>25.6</v>
+      </c>
     </row>
-    <row r="19" spans="1:248" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>16</v>
       </c>
@@ -13803,11 +13846,14 @@
       <c r="IM19" s="27">
         <v>32.1</v>
       </c>
-      <c r="IN19" s="57">
-        <v>32.4</v>
+      <c r="IN19" s="27">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="IO19" s="57">
+        <v>29.6</v>
       </c>
     </row>
-    <row r="20" spans="1:248" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>17</v>
       </c>
@@ -14549,11 +14595,14 @@
       <c r="IM20" s="27">
         <v>21.8</v>
       </c>
-      <c r="IN20" s="57">
-        <v>19.899999999999999</v>
+      <c r="IN20" s="27">
+        <v>19.7</v>
+      </c>
+      <c r="IO20" s="57">
+        <v>17.7</v>
       </c>
     </row>
-    <row r="21" spans="1:248" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>18</v>
       </c>
@@ -15295,11 +15344,14 @@
       <c r="IM21" s="27">
         <v>32</v>
       </c>
-      <c r="IN21" s="57">
-        <v>32.5</v>
+      <c r="IN21" s="27">
+        <v>31.8</v>
+      </c>
+      <c r="IO21" s="57">
+        <v>28.8</v>
       </c>
     </row>
-    <row r="22" spans="1:248" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>105</v>
       </c>
@@ -16041,263 +16093,267 @@
       <c r="IM22" s="27">
         <v>28.2</v>
       </c>
-      <c r="IN22" s="57">
-        <v>28.2</v>
+      <c r="IN22" s="27">
+        <v>28</v>
+      </c>
+      <c r="IO22" s="57">
+        <v>25.4</v>
       </c>
     </row>
-    <row r="23" spans="1:248" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="62"/>
-      <c r="S23" s="62"/>
-      <c r="T23" s="62"/>
-      <c r="U23" s="62"/>
-      <c r="V23" s="62"/>
-      <c r="W23" s="62"/>
-      <c r="X23" s="62"/>
-      <c r="Y23" s="62"/>
-      <c r="Z23" s="62"/>
-      <c r="AA23" s="62"/>
-      <c r="AB23" s="62"/>
-      <c r="AC23" s="62"/>
-      <c r="AD23" s="62"/>
-      <c r="AE23" s="62"/>
-      <c r="AF23" s="62"/>
-      <c r="AG23" s="62"/>
-      <c r="AH23" s="62"/>
-      <c r="AI23" s="62"/>
-      <c r="AJ23" s="62"/>
-      <c r="AK23" s="62"/>
-      <c r="AL23" s="62"/>
-      <c r="AM23" s="62"/>
-      <c r="AN23" s="62"/>
-      <c r="AO23" s="62"/>
-      <c r="AP23" s="62"/>
-      <c r="AQ23" s="62"/>
-      <c r="AR23" s="62"/>
-      <c r="AS23" s="62"/>
-      <c r="AT23" s="62"/>
-      <c r="AU23" s="62"/>
-      <c r="AV23" s="62"/>
-      <c r="AW23" s="62"/>
-      <c r="AX23" s="62"/>
-      <c r="AY23" s="62"/>
-      <c r="AZ23" s="62"/>
-      <c r="BA23" s="62"/>
-      <c r="BB23" s="62"/>
-      <c r="BC23" s="62"/>
-      <c r="BD23" s="62"/>
-      <c r="BE23" s="62"/>
-      <c r="BF23" s="62"/>
-      <c r="BG23" s="62"/>
-      <c r="BH23" s="62"/>
-      <c r="BI23" s="62"/>
-      <c r="BJ23" s="62"/>
-      <c r="BK23" s="62"/>
-      <c r="BL23" s="62"/>
-      <c r="BM23" s="62"/>
-      <c r="BN23" s="62"/>
-      <c r="BO23" s="62"/>
-      <c r="BP23" s="62"/>
-      <c r="BQ23" s="62"/>
-      <c r="BR23" s="62"/>
-      <c r="BS23" s="62"/>
-      <c r="BT23" s="62"/>
-      <c r="BU23" s="62"/>
-      <c r="BV23" s="62"/>
-      <c r="BW23" s="62"/>
-      <c r="BX23" s="62"/>
-      <c r="BY23" s="62"/>
-      <c r="BZ23" s="62"/>
-      <c r="CA23" s="62"/>
-      <c r="CB23" s="62"/>
-      <c r="CC23" s="62"/>
-      <c r="CD23" s="62"/>
-      <c r="CE23" s="62"/>
-      <c r="CF23" s="62"/>
-      <c r="CG23" s="62"/>
-      <c r="CH23" s="62"/>
-      <c r="CI23" s="62"/>
-      <c r="CJ23" s="62"/>
-      <c r="CK23" s="62"/>
-      <c r="CL23" s="62"/>
-      <c r="CM23" s="62"/>
-      <c r="CN23" s="62"/>
-      <c r="CO23" s="62"/>
-      <c r="CP23" s="62"/>
-      <c r="CQ23" s="62"/>
-      <c r="CR23" s="62"/>
-      <c r="CS23" s="62"/>
-      <c r="CT23" s="62"/>
-      <c r="CU23" s="62"/>
-      <c r="CV23" s="62"/>
-      <c r="CW23" s="62"/>
-      <c r="CX23" s="62"/>
-      <c r="CY23" s="62"/>
-      <c r="CZ23" s="62"/>
-      <c r="DA23" s="62"/>
-      <c r="DB23" s="62"/>
-      <c r="DC23" s="62"/>
-      <c r="DD23" s="62"/>
-      <c r="DE23" s="62"/>
-      <c r="DF23" s="62"/>
-      <c r="DG23" s="62"/>
-      <c r="DH23" s="62"/>
-      <c r="DI23" s="62"/>
-      <c r="DJ23" s="62"/>
-      <c r="DK23" s="62"/>
-      <c r="DL23" s="62"/>
-      <c r="DM23" s="62"/>
-      <c r="DN23" s="62"/>
-      <c r="DO23" s="62"/>
-      <c r="DP23" s="62"/>
-      <c r="DQ23" s="62"/>
-      <c r="DR23" s="62"/>
-      <c r="DS23" s="62"/>
-      <c r="DT23" s="62"/>
-      <c r="DU23" s="62"/>
-      <c r="DV23" s="62"/>
-      <c r="DW23" s="62"/>
-      <c r="DX23" s="62"/>
-      <c r="DY23" s="62"/>
-      <c r="DZ23" s="62"/>
-      <c r="EA23" s="62"/>
-      <c r="EB23" s="62"/>
-      <c r="EC23" s="62"/>
-      <c r="ED23" s="62"/>
-      <c r="EE23" s="62"/>
-      <c r="EF23" s="62"/>
-      <c r="EG23" s="62"/>
-      <c r="EH23" s="62"/>
-      <c r="EI23" s="62"/>
-      <c r="EJ23" s="62"/>
-      <c r="EK23" s="62"/>
-      <c r="EL23" s="62"/>
-      <c r="EM23" s="62"/>
-      <c r="EN23" s="62"/>
-      <c r="EO23" s="62"/>
-      <c r="EP23" s="62"/>
-      <c r="EQ23" s="62"/>
-      <c r="ER23" s="62"/>
-      <c r="ES23" s="62"/>
-      <c r="ET23" s="62"/>
-      <c r="EU23" s="62"/>
-      <c r="EV23" s="62"/>
-      <c r="EW23" s="62"/>
-      <c r="EX23" s="62"/>
-      <c r="EY23" s="62"/>
-      <c r="EZ23" s="62"/>
-      <c r="FA23" s="62"/>
-      <c r="FB23" s="62"/>
-      <c r="FC23" s="62"/>
-      <c r="FD23" s="62"/>
-      <c r="FE23" s="62"/>
-      <c r="FF23" s="62"/>
-      <c r="FG23" s="62"/>
-      <c r="FH23" s="62"/>
-      <c r="FI23" s="62"/>
-      <c r="FJ23" s="62"/>
-      <c r="FK23" s="62"/>
-      <c r="FL23" s="62"/>
-      <c r="FM23" s="62"/>
-      <c r="FN23" s="62"/>
-      <c r="FO23" s="62"/>
-      <c r="FP23" s="62"/>
-      <c r="FQ23" s="62"/>
-      <c r="FR23" s="62"/>
-      <c r="FS23" s="62"/>
-      <c r="FT23" s="62"/>
-      <c r="FU23" s="62"/>
-      <c r="FV23" s="62"/>
-      <c r="FW23" s="62"/>
-      <c r="FX23" s="62"/>
-      <c r="FY23" s="62"/>
-      <c r="FZ23" s="62"/>
-      <c r="GA23" s="62"/>
-      <c r="GB23" s="62"/>
-      <c r="GC23" s="62"/>
-      <c r="GD23" s="62"/>
-      <c r="GE23" s="62"/>
-      <c r="GF23" s="62"/>
-      <c r="GG23" s="62"/>
-      <c r="GH23" s="62"/>
-      <c r="GI23" s="62"/>
-      <c r="GJ23" s="62"/>
-      <c r="GK23" s="62"/>
-      <c r="GL23" s="62"/>
-      <c r="GM23" s="62"/>
-      <c r="GN23" s="62"/>
-      <c r="GO23" s="62"/>
-      <c r="GP23" s="62"/>
-      <c r="GQ23" s="62"/>
-      <c r="GR23" s="62"/>
-      <c r="GS23" s="62"/>
-      <c r="GT23" s="62"/>
-      <c r="GU23" s="62"/>
-      <c r="GV23" s="62"/>
-      <c r="GW23" s="62"/>
-      <c r="GX23" s="62"/>
-      <c r="GY23" s="62"/>
-      <c r="GZ23" s="62"/>
-      <c r="HA23" s="62"/>
-      <c r="HB23" s="62"/>
-      <c r="HC23" s="62"/>
-      <c r="HD23" s="62"/>
-      <c r="HE23" s="62"/>
-      <c r="HF23" s="62"/>
-      <c r="HG23" s="62"/>
-      <c r="HH23" s="62"/>
-      <c r="HI23" s="62"/>
-      <c r="HJ23" s="62"/>
-      <c r="HK23" s="62"/>
-      <c r="HL23" s="62"/>
-      <c r="HM23" s="62"/>
-      <c r="HN23" s="62"/>
-      <c r="HO23" s="62"/>
-      <c r="HP23" s="62"/>
-      <c r="HQ23" s="62"/>
-      <c r="HR23" s="62"/>
-      <c r="HS23" s="62"/>
-      <c r="HT23" s="62"/>
-      <c r="HU23" s="62"/>
-      <c r="HV23" s="62"/>
-      <c r="HW23" s="62"/>
-      <c r="HX23" s="62"/>
-      <c r="HY23" s="62"/>
-      <c r="HZ23" s="62"/>
-      <c r="IA23" s="62"/>
-      <c r="IB23" s="62"/>
-      <c r="IC23" s="62"/>
-      <c r="ID23" s="62"/>
-      <c r="IE23" s="62"/>
-      <c r="IF23" s="62"/>
-      <c r="IG23" s="62"/>
-      <c r="IH23" s="62"/>
-      <c r="II23" s="62"/>
-      <c r="IJ23" s="62"/>
-      <c r="IK23" s="62"/>
-      <c r="IL23" s="62"/>
-      <c r="IM23" s="62"/>
-      <c r="IN23" s="62"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="70"/>
+      <c r="R23" s="70"/>
+      <c r="S23" s="70"/>
+      <c r="T23" s="70"/>
+      <c r="U23" s="70"/>
+      <c r="V23" s="70"/>
+      <c r="W23" s="70"/>
+      <c r="X23" s="70"/>
+      <c r="Y23" s="70"/>
+      <c r="Z23" s="70"/>
+      <c r="AA23" s="70"/>
+      <c r="AB23" s="70"/>
+      <c r="AC23" s="70"/>
+      <c r="AD23" s="70"/>
+      <c r="AE23" s="70"/>
+      <c r="AF23" s="70"/>
+      <c r="AG23" s="70"/>
+      <c r="AH23" s="70"/>
+      <c r="AI23" s="70"/>
+      <c r="AJ23" s="70"/>
+      <c r="AK23" s="70"/>
+      <c r="AL23" s="70"/>
+      <c r="AM23" s="70"/>
+      <c r="AN23" s="70"/>
+      <c r="AO23" s="70"/>
+      <c r="AP23" s="70"/>
+      <c r="AQ23" s="70"/>
+      <c r="AR23" s="70"/>
+      <c r="AS23" s="70"/>
+      <c r="AT23" s="70"/>
+      <c r="AU23" s="70"/>
+      <c r="AV23" s="70"/>
+      <c r="AW23" s="70"/>
+      <c r="AX23" s="70"/>
+      <c r="AY23" s="70"/>
+      <c r="AZ23" s="70"/>
+      <c r="BA23" s="70"/>
+      <c r="BB23" s="70"/>
+      <c r="BC23" s="70"/>
+      <c r="BD23" s="70"/>
+      <c r="BE23" s="70"/>
+      <c r="BF23" s="70"/>
+      <c r="BG23" s="70"/>
+      <c r="BH23" s="70"/>
+      <c r="BI23" s="70"/>
+      <c r="BJ23" s="70"/>
+      <c r="BK23" s="70"/>
+      <c r="BL23" s="70"/>
+      <c r="BM23" s="70"/>
+      <c r="BN23" s="70"/>
+      <c r="BO23" s="70"/>
+      <c r="BP23" s="70"/>
+      <c r="BQ23" s="70"/>
+      <c r="BR23" s="70"/>
+      <c r="BS23" s="70"/>
+      <c r="BT23" s="70"/>
+      <c r="BU23" s="70"/>
+      <c r="BV23" s="70"/>
+      <c r="BW23" s="70"/>
+      <c r="BX23" s="70"/>
+      <c r="BY23" s="70"/>
+      <c r="BZ23" s="70"/>
+      <c r="CA23" s="70"/>
+      <c r="CB23" s="70"/>
+      <c r="CC23" s="70"/>
+      <c r="CD23" s="70"/>
+      <c r="CE23" s="70"/>
+      <c r="CF23" s="70"/>
+      <c r="CG23" s="70"/>
+      <c r="CH23" s="70"/>
+      <c r="CI23" s="70"/>
+      <c r="CJ23" s="70"/>
+      <c r="CK23" s="70"/>
+      <c r="CL23" s="70"/>
+      <c r="CM23" s="70"/>
+      <c r="CN23" s="70"/>
+      <c r="CO23" s="70"/>
+      <c r="CP23" s="70"/>
+      <c r="CQ23" s="70"/>
+      <c r="CR23" s="70"/>
+      <c r="CS23" s="70"/>
+      <c r="CT23" s="70"/>
+      <c r="CU23" s="70"/>
+      <c r="CV23" s="70"/>
+      <c r="CW23" s="70"/>
+      <c r="CX23" s="70"/>
+      <c r="CY23" s="70"/>
+      <c r="CZ23" s="70"/>
+      <c r="DA23" s="70"/>
+      <c r="DB23" s="70"/>
+      <c r="DC23" s="70"/>
+      <c r="DD23" s="70"/>
+      <c r="DE23" s="70"/>
+      <c r="DF23" s="70"/>
+      <c r="DG23" s="70"/>
+      <c r="DH23" s="70"/>
+      <c r="DI23" s="70"/>
+      <c r="DJ23" s="70"/>
+      <c r="DK23" s="70"/>
+      <c r="DL23" s="70"/>
+      <c r="DM23" s="70"/>
+      <c r="DN23" s="70"/>
+      <c r="DO23" s="70"/>
+      <c r="DP23" s="70"/>
+      <c r="DQ23" s="70"/>
+      <c r="DR23" s="70"/>
+      <c r="DS23" s="70"/>
+      <c r="DT23" s="70"/>
+      <c r="DU23" s="70"/>
+      <c r="DV23" s="70"/>
+      <c r="DW23" s="70"/>
+      <c r="DX23" s="70"/>
+      <c r="DY23" s="70"/>
+      <c r="DZ23" s="70"/>
+      <c r="EA23" s="70"/>
+      <c r="EB23" s="70"/>
+      <c r="EC23" s="70"/>
+      <c r="ED23" s="70"/>
+      <c r="EE23" s="70"/>
+      <c r="EF23" s="70"/>
+      <c r="EG23" s="70"/>
+      <c r="EH23" s="70"/>
+      <c r="EI23" s="70"/>
+      <c r="EJ23" s="70"/>
+      <c r="EK23" s="70"/>
+      <c r="EL23" s="70"/>
+      <c r="EM23" s="70"/>
+      <c r="EN23" s="70"/>
+      <c r="EO23" s="70"/>
+      <c r="EP23" s="70"/>
+      <c r="EQ23" s="70"/>
+      <c r="ER23" s="70"/>
+      <c r="ES23" s="70"/>
+      <c r="ET23" s="70"/>
+      <c r="EU23" s="70"/>
+      <c r="EV23" s="70"/>
+      <c r="EW23" s="70"/>
+      <c r="EX23" s="70"/>
+      <c r="EY23" s="70"/>
+      <c r="EZ23" s="70"/>
+      <c r="FA23" s="70"/>
+      <c r="FB23" s="70"/>
+      <c r="FC23" s="70"/>
+      <c r="FD23" s="70"/>
+      <c r="FE23" s="70"/>
+      <c r="FF23" s="70"/>
+      <c r="FG23" s="70"/>
+      <c r="FH23" s="70"/>
+      <c r="FI23" s="70"/>
+      <c r="FJ23" s="70"/>
+      <c r="FK23" s="70"/>
+      <c r="FL23" s="70"/>
+      <c r="FM23" s="70"/>
+      <c r="FN23" s="70"/>
+      <c r="FO23" s="70"/>
+      <c r="FP23" s="70"/>
+      <c r="FQ23" s="70"/>
+      <c r="FR23" s="70"/>
+      <c r="FS23" s="70"/>
+      <c r="FT23" s="70"/>
+      <c r="FU23" s="70"/>
+      <c r="FV23" s="70"/>
+      <c r="FW23" s="70"/>
+      <c r="FX23" s="70"/>
+      <c r="FY23" s="70"/>
+      <c r="FZ23" s="70"/>
+      <c r="GA23" s="70"/>
+      <c r="GB23" s="70"/>
+      <c r="GC23" s="70"/>
+      <c r="GD23" s="70"/>
+      <c r="GE23" s="70"/>
+      <c r="GF23" s="70"/>
+      <c r="GG23" s="70"/>
+      <c r="GH23" s="70"/>
+      <c r="GI23" s="70"/>
+      <c r="GJ23" s="70"/>
+      <c r="GK23" s="70"/>
+      <c r="GL23" s="70"/>
+      <c r="GM23" s="70"/>
+      <c r="GN23" s="70"/>
+      <c r="GO23" s="70"/>
+      <c r="GP23" s="70"/>
+      <c r="GQ23" s="70"/>
+      <c r="GR23" s="70"/>
+      <c r="GS23" s="70"/>
+      <c r="GT23" s="70"/>
+      <c r="GU23" s="70"/>
+      <c r="GV23" s="70"/>
+      <c r="GW23" s="70"/>
+      <c r="GX23" s="70"/>
+      <c r="GY23" s="70"/>
+      <c r="GZ23" s="70"/>
+      <c r="HA23" s="70"/>
+      <c r="HB23" s="70"/>
+      <c r="HC23" s="70"/>
+      <c r="HD23" s="70"/>
+      <c r="HE23" s="70"/>
+      <c r="HF23" s="70"/>
+      <c r="HG23" s="70"/>
+      <c r="HH23" s="70"/>
+      <c r="HI23" s="70"/>
+      <c r="HJ23" s="70"/>
+      <c r="HK23" s="70"/>
+      <c r="HL23" s="70"/>
+      <c r="HM23" s="70"/>
+      <c r="HN23" s="70"/>
+      <c r="HO23" s="70"/>
+      <c r="HP23" s="70"/>
+      <c r="HQ23" s="70"/>
+      <c r="HR23" s="70"/>
+      <c r="HS23" s="70"/>
+      <c r="HT23" s="70"/>
+      <c r="HU23" s="70"/>
+      <c r="HV23" s="70"/>
+      <c r="HW23" s="70"/>
+      <c r="HX23" s="70"/>
+      <c r="HY23" s="70"/>
+      <c r="HZ23" s="70"/>
+      <c r="IA23" s="70"/>
+      <c r="IB23" s="70"/>
+      <c r="IC23" s="70"/>
+      <c r="ID23" s="70"/>
+      <c r="IE23" s="70"/>
+      <c r="IF23" s="70"/>
+      <c r="IG23" s="70"/>
+      <c r="IH23" s="70"/>
+      <c r="II23" s="70"/>
+      <c r="IJ23" s="70"/>
+      <c r="IK23" s="70"/>
+      <c r="IL23" s="70"/>
+      <c r="IM23" s="70"/>
+      <c r="IN23" s="70"/>
+      <c r="IO23" s="70"/>
     </row>
-    <row r="24" spans="1:248" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>19</v>
       </c>
@@ -17042,8 +17098,11 @@
       <c r="IN24" s="32">
         <v>0</v>
       </c>
+      <c r="IO24" s="32">
+        <v>-1.8</v>
+      </c>
     </row>
-    <row r="25" spans="1:248" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>20</v>
       </c>
@@ -17788,8 +17847,11 @@
       <c r="IN25" s="32">
         <v>-1.9</v>
       </c>
+      <c r="IO25" s="32">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="26" spans="1:248" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>15</v>
       </c>
@@ -18534,8 +18596,11 @@
       <c r="IN26" s="32">
         <v>-0.3</v>
       </c>
+      <c r="IO26" s="32">
+        <v>-1.5</v>
+      </c>
     </row>
-    <row r="27" spans="1:248" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>106</v>
       </c>
@@ -19280,8 +19345,11 @@
       <c r="IN27" s="32">
         <v>-0.2</v>
       </c>
+      <c r="IO27" s="32">
+        <v>-1.1000000000000001</v>
+      </c>
     </row>
-    <row r="28" spans="1:248" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>21</v>
       </c>
@@ -20023,11 +20091,14 @@
       <c r="IM28" s="32">
         <v>2.1</v>
       </c>
-      <c r="IN28" s="58">
-        <v>0.2</v>
+      <c r="IN28" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="IO28" s="58">
+        <v>-2.2999999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:248" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
         <v>22</v>
       </c>
@@ -20769,11 +20840,14 @@
       <c r="IM29" s="32">
         <v>0.7</v>
       </c>
-      <c r="IN29" s="58">
-        <v>-1.6</v>
+      <c r="IN29" s="32">
+        <v>-1.7</v>
+      </c>
+      <c r="IO29" s="58">
+        <v>-1.7</v>
       </c>
     </row>
-    <row r="30" spans="1:248" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>23</v>
       </c>
@@ -21515,11 +21589,14 @@
       <c r="IM30" s="32">
         <v>2.1</v>
       </c>
-      <c r="IN30" s="58">
-        <v>0.4</v>
+      <c r="IN30" s="32">
+        <v>-0.1</v>
+      </c>
+      <c r="IO30" s="58">
+        <v>-2.2999999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:248" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>107</v>
       </c>
@@ -22261,263 +22338,267 @@
       <c r="IM31" s="32">
         <v>1.8</v>
       </c>
-      <c r="IN31" s="58">
-        <v>0</v>
+      <c r="IN31" s="32">
+        <v>-0.2</v>
+      </c>
+      <c r="IO31" s="58">
+        <v>-2.1</v>
       </c>
     </row>
-    <row r="32" spans="1:248" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:249" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="34"/>
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="63"/>
-      <c r="P32" s="63"/>
-      <c r="Q32" s="63"/>
-      <c r="R32" s="63"/>
-      <c r="S32" s="63"/>
-      <c r="T32" s="63"/>
-      <c r="U32" s="63"/>
-      <c r="V32" s="63"/>
-      <c r="W32" s="63"/>
-      <c r="X32" s="63"/>
-      <c r="Y32" s="63"/>
-      <c r="Z32" s="63"/>
-      <c r="AA32" s="63"/>
-      <c r="AB32" s="63"/>
-      <c r="AC32" s="63"/>
-      <c r="AD32" s="63"/>
-      <c r="AE32" s="63"/>
-      <c r="AF32" s="63"/>
-      <c r="AG32" s="63"/>
-      <c r="AH32" s="63"/>
-      <c r="AI32" s="63"/>
-      <c r="AJ32" s="63"/>
-      <c r="AK32" s="63"/>
-      <c r="AL32" s="63"/>
-      <c r="AM32" s="63"/>
-      <c r="AN32" s="63"/>
-      <c r="AO32" s="63"/>
-      <c r="AP32" s="63"/>
-      <c r="AQ32" s="63"/>
-      <c r="AR32" s="63"/>
-      <c r="AS32" s="63"/>
-      <c r="AT32" s="63"/>
-      <c r="AU32" s="63"/>
-      <c r="AV32" s="63"/>
-      <c r="AW32" s="63"/>
-      <c r="AX32" s="63"/>
-      <c r="AY32" s="63"/>
-      <c r="AZ32" s="63"/>
-      <c r="BA32" s="63"/>
-      <c r="BB32" s="63"/>
-      <c r="BC32" s="63"/>
-      <c r="BD32" s="63"/>
-      <c r="BE32" s="63"/>
-      <c r="BF32" s="63"/>
-      <c r="BG32" s="63"/>
-      <c r="BH32" s="63"/>
-      <c r="BI32" s="63"/>
-      <c r="BJ32" s="63"/>
-      <c r="BK32" s="63"/>
-      <c r="BL32" s="63"/>
-      <c r="BM32" s="63"/>
-      <c r="BN32" s="63"/>
-      <c r="BO32" s="63"/>
-      <c r="BP32" s="63"/>
-      <c r="BQ32" s="63"/>
-      <c r="BR32" s="63"/>
-      <c r="BS32" s="63"/>
-      <c r="BT32" s="63"/>
-      <c r="BU32" s="63"/>
-      <c r="BV32" s="63"/>
-      <c r="BW32" s="63"/>
-      <c r="BX32" s="63"/>
-      <c r="BY32" s="63"/>
-      <c r="BZ32" s="63"/>
-      <c r="CA32" s="63"/>
-      <c r="CB32" s="63"/>
-      <c r="CC32" s="63"/>
-      <c r="CD32" s="63"/>
-      <c r="CE32" s="63"/>
-      <c r="CF32" s="63"/>
-      <c r="CG32" s="63"/>
-      <c r="CH32" s="63"/>
-      <c r="CI32" s="63"/>
-      <c r="CJ32" s="63"/>
-      <c r="CK32" s="63"/>
-      <c r="CL32" s="63"/>
-      <c r="CM32" s="63"/>
-      <c r="CN32" s="63"/>
-      <c r="CO32" s="63"/>
-      <c r="CP32" s="63"/>
-      <c r="CQ32" s="63"/>
-      <c r="CR32" s="63"/>
-      <c r="CS32" s="63"/>
-      <c r="CT32" s="63"/>
-      <c r="CU32" s="63"/>
-      <c r="CV32" s="63"/>
-      <c r="CW32" s="63"/>
-      <c r="CX32" s="63"/>
-      <c r="CY32" s="63"/>
-      <c r="CZ32" s="63"/>
-      <c r="DA32" s="63"/>
-      <c r="DB32" s="63"/>
-      <c r="DC32" s="63"/>
-      <c r="DD32" s="63"/>
-      <c r="DE32" s="63"/>
-      <c r="DF32" s="63"/>
-      <c r="DG32" s="63"/>
-      <c r="DH32" s="63"/>
-      <c r="DI32" s="63"/>
-      <c r="DJ32" s="63"/>
-      <c r="DK32" s="63"/>
-      <c r="DL32" s="63"/>
-      <c r="DM32" s="63"/>
-      <c r="DN32" s="63"/>
-      <c r="DO32" s="63"/>
-      <c r="DP32" s="63"/>
-      <c r="DQ32" s="63"/>
-      <c r="DR32" s="63"/>
-      <c r="DS32" s="63"/>
-      <c r="DT32" s="63"/>
-      <c r="DU32" s="63"/>
-      <c r="DV32" s="63"/>
-      <c r="DW32" s="63"/>
-      <c r="DX32" s="63"/>
-      <c r="DY32" s="63"/>
-      <c r="DZ32" s="63"/>
-      <c r="EA32" s="63"/>
-      <c r="EB32" s="63"/>
-      <c r="EC32" s="63"/>
-      <c r="ED32" s="63"/>
-      <c r="EE32" s="63"/>
-      <c r="EF32" s="63"/>
-      <c r="EG32" s="63"/>
-      <c r="EH32" s="63"/>
-      <c r="EI32" s="63"/>
-      <c r="EJ32" s="63"/>
-      <c r="EK32" s="63"/>
-      <c r="EL32" s="63"/>
-      <c r="EM32" s="63"/>
-      <c r="EN32" s="63"/>
-      <c r="EO32" s="63"/>
-      <c r="EP32" s="63"/>
-      <c r="EQ32" s="63"/>
-      <c r="ER32" s="63"/>
-      <c r="ES32" s="63"/>
-      <c r="ET32" s="63"/>
-      <c r="EU32" s="63"/>
-      <c r="EV32" s="63"/>
-      <c r="EW32" s="63"/>
-      <c r="EX32" s="63"/>
-      <c r="EY32" s="63"/>
-      <c r="EZ32" s="63"/>
-      <c r="FA32" s="63"/>
-      <c r="FB32" s="63"/>
-      <c r="FC32" s="63"/>
-      <c r="FD32" s="63"/>
-      <c r="FE32" s="63"/>
-      <c r="FF32" s="63"/>
-      <c r="FG32" s="63"/>
-      <c r="FH32" s="63"/>
-      <c r="FI32" s="63"/>
-      <c r="FJ32" s="63"/>
-      <c r="FK32" s="63"/>
-      <c r="FL32" s="63"/>
-      <c r="FM32" s="63"/>
-      <c r="FN32" s="63"/>
-      <c r="FO32" s="63"/>
-      <c r="FP32" s="63"/>
-      <c r="FQ32" s="63"/>
-      <c r="FR32" s="63"/>
-      <c r="FS32" s="63"/>
-      <c r="FT32" s="63"/>
-      <c r="FU32" s="63"/>
-      <c r="FV32" s="63"/>
-      <c r="FW32" s="63"/>
-      <c r="FX32" s="63"/>
-      <c r="FY32" s="63"/>
-      <c r="FZ32" s="63"/>
-      <c r="GA32" s="63"/>
-      <c r="GB32" s="63"/>
-      <c r="GC32" s="63"/>
-      <c r="GD32" s="63"/>
-      <c r="GE32" s="63"/>
-      <c r="GF32" s="63"/>
-      <c r="GG32" s="63"/>
-      <c r="GH32" s="63"/>
-      <c r="GI32" s="63"/>
-      <c r="GJ32" s="63"/>
-      <c r="GK32" s="63"/>
-      <c r="GL32" s="63"/>
-      <c r="GM32" s="63"/>
-      <c r="GN32" s="63"/>
-      <c r="GO32" s="63"/>
-      <c r="GP32" s="63"/>
-      <c r="GQ32" s="63"/>
-      <c r="GR32" s="63"/>
-      <c r="GS32" s="63"/>
-      <c r="GT32" s="63"/>
-      <c r="GU32" s="63"/>
-      <c r="GV32" s="63"/>
-      <c r="GW32" s="63"/>
-      <c r="GX32" s="63"/>
-      <c r="GY32" s="63"/>
-      <c r="GZ32" s="63"/>
-      <c r="HA32" s="63"/>
-      <c r="HB32" s="63"/>
-      <c r="HC32" s="63"/>
-      <c r="HD32" s="63"/>
-      <c r="HE32" s="63"/>
-      <c r="HF32" s="63"/>
-      <c r="HG32" s="63"/>
-      <c r="HH32" s="63"/>
-      <c r="HI32" s="63"/>
-      <c r="HJ32" s="63"/>
-      <c r="HK32" s="63"/>
-      <c r="HL32" s="63"/>
-      <c r="HM32" s="63"/>
-      <c r="HN32" s="63"/>
-      <c r="HO32" s="63"/>
-      <c r="HP32" s="63"/>
-      <c r="HQ32" s="63"/>
-      <c r="HR32" s="63"/>
-      <c r="HS32" s="63"/>
-      <c r="HT32" s="63"/>
-      <c r="HU32" s="63"/>
-      <c r="HV32" s="63"/>
-      <c r="HW32" s="63"/>
-      <c r="HX32" s="63"/>
-      <c r="HY32" s="63"/>
-      <c r="HZ32" s="63"/>
-      <c r="IA32" s="63"/>
-      <c r="IB32" s="63"/>
-      <c r="IC32" s="63"/>
-      <c r="ID32" s="63"/>
-      <c r="IE32" s="63"/>
-      <c r="IF32" s="63"/>
-      <c r="IG32" s="63"/>
-      <c r="IH32" s="63"/>
-      <c r="II32" s="63"/>
-      <c r="IJ32" s="63"/>
-      <c r="IK32" s="63"/>
-      <c r="IL32" s="63"/>
-      <c r="IM32" s="63"/>
-      <c r="IN32" s="63"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="71"/>
+      <c r="P32" s="71"/>
+      <c r="Q32" s="71"/>
+      <c r="R32" s="71"/>
+      <c r="S32" s="71"/>
+      <c r="T32" s="71"/>
+      <c r="U32" s="71"/>
+      <c r="V32" s="71"/>
+      <c r="W32" s="71"/>
+      <c r="X32" s="71"/>
+      <c r="Y32" s="71"/>
+      <c r="Z32" s="71"/>
+      <c r="AA32" s="71"/>
+      <c r="AB32" s="71"/>
+      <c r="AC32" s="71"/>
+      <c r="AD32" s="71"/>
+      <c r="AE32" s="71"/>
+      <c r="AF32" s="71"/>
+      <c r="AG32" s="71"/>
+      <c r="AH32" s="71"/>
+      <c r="AI32" s="71"/>
+      <c r="AJ32" s="71"/>
+      <c r="AK32" s="71"/>
+      <c r="AL32" s="71"/>
+      <c r="AM32" s="71"/>
+      <c r="AN32" s="71"/>
+      <c r="AO32" s="71"/>
+      <c r="AP32" s="71"/>
+      <c r="AQ32" s="71"/>
+      <c r="AR32" s="71"/>
+      <c r="AS32" s="71"/>
+      <c r="AT32" s="71"/>
+      <c r="AU32" s="71"/>
+      <c r="AV32" s="71"/>
+      <c r="AW32" s="71"/>
+      <c r="AX32" s="71"/>
+      <c r="AY32" s="71"/>
+      <c r="AZ32" s="71"/>
+      <c r="BA32" s="71"/>
+      <c r="BB32" s="71"/>
+      <c r="BC32" s="71"/>
+      <c r="BD32" s="71"/>
+      <c r="BE32" s="71"/>
+      <c r="BF32" s="71"/>
+      <c r="BG32" s="71"/>
+      <c r="BH32" s="71"/>
+      <c r="BI32" s="71"/>
+      <c r="BJ32" s="71"/>
+      <c r="BK32" s="71"/>
+      <c r="BL32" s="71"/>
+      <c r="BM32" s="71"/>
+      <c r="BN32" s="71"/>
+      <c r="BO32" s="71"/>
+      <c r="BP32" s="71"/>
+      <c r="BQ32" s="71"/>
+      <c r="BR32" s="71"/>
+      <c r="BS32" s="71"/>
+      <c r="BT32" s="71"/>
+      <c r="BU32" s="71"/>
+      <c r="BV32" s="71"/>
+      <c r="BW32" s="71"/>
+      <c r="BX32" s="71"/>
+      <c r="BY32" s="71"/>
+      <c r="BZ32" s="71"/>
+      <c r="CA32" s="71"/>
+      <c r="CB32" s="71"/>
+      <c r="CC32" s="71"/>
+      <c r="CD32" s="71"/>
+      <c r="CE32" s="71"/>
+      <c r="CF32" s="71"/>
+      <c r="CG32" s="71"/>
+      <c r="CH32" s="71"/>
+      <c r="CI32" s="71"/>
+      <c r="CJ32" s="71"/>
+      <c r="CK32" s="71"/>
+      <c r="CL32" s="71"/>
+      <c r="CM32" s="71"/>
+      <c r="CN32" s="71"/>
+      <c r="CO32" s="71"/>
+      <c r="CP32" s="71"/>
+      <c r="CQ32" s="71"/>
+      <c r="CR32" s="71"/>
+      <c r="CS32" s="71"/>
+      <c r="CT32" s="71"/>
+      <c r="CU32" s="71"/>
+      <c r="CV32" s="71"/>
+      <c r="CW32" s="71"/>
+      <c r="CX32" s="71"/>
+      <c r="CY32" s="71"/>
+      <c r="CZ32" s="71"/>
+      <c r="DA32" s="71"/>
+      <c r="DB32" s="71"/>
+      <c r="DC32" s="71"/>
+      <c r="DD32" s="71"/>
+      <c r="DE32" s="71"/>
+      <c r="DF32" s="71"/>
+      <c r="DG32" s="71"/>
+      <c r="DH32" s="71"/>
+      <c r="DI32" s="71"/>
+      <c r="DJ32" s="71"/>
+      <c r="DK32" s="71"/>
+      <c r="DL32" s="71"/>
+      <c r="DM32" s="71"/>
+      <c r="DN32" s="71"/>
+      <c r="DO32" s="71"/>
+      <c r="DP32" s="71"/>
+      <c r="DQ32" s="71"/>
+      <c r="DR32" s="71"/>
+      <c r="DS32" s="71"/>
+      <c r="DT32" s="71"/>
+      <c r="DU32" s="71"/>
+      <c r="DV32" s="71"/>
+      <c r="DW32" s="71"/>
+      <c r="DX32" s="71"/>
+      <c r="DY32" s="71"/>
+      <c r="DZ32" s="71"/>
+      <c r="EA32" s="71"/>
+      <c r="EB32" s="71"/>
+      <c r="EC32" s="71"/>
+      <c r="ED32" s="71"/>
+      <c r="EE32" s="71"/>
+      <c r="EF32" s="71"/>
+      <c r="EG32" s="71"/>
+      <c r="EH32" s="71"/>
+      <c r="EI32" s="71"/>
+      <c r="EJ32" s="71"/>
+      <c r="EK32" s="71"/>
+      <c r="EL32" s="71"/>
+      <c r="EM32" s="71"/>
+      <c r="EN32" s="71"/>
+      <c r="EO32" s="71"/>
+      <c r="EP32" s="71"/>
+      <c r="EQ32" s="71"/>
+      <c r="ER32" s="71"/>
+      <c r="ES32" s="71"/>
+      <c r="ET32" s="71"/>
+      <c r="EU32" s="71"/>
+      <c r="EV32" s="71"/>
+      <c r="EW32" s="71"/>
+      <c r="EX32" s="71"/>
+      <c r="EY32" s="71"/>
+      <c r="EZ32" s="71"/>
+      <c r="FA32" s="71"/>
+      <c r="FB32" s="71"/>
+      <c r="FC32" s="71"/>
+      <c r="FD32" s="71"/>
+      <c r="FE32" s="71"/>
+      <c r="FF32" s="71"/>
+      <c r="FG32" s="71"/>
+      <c r="FH32" s="71"/>
+      <c r="FI32" s="71"/>
+      <c r="FJ32" s="71"/>
+      <c r="FK32" s="71"/>
+      <c r="FL32" s="71"/>
+      <c r="FM32" s="71"/>
+      <c r="FN32" s="71"/>
+      <c r="FO32" s="71"/>
+      <c r="FP32" s="71"/>
+      <c r="FQ32" s="71"/>
+      <c r="FR32" s="71"/>
+      <c r="FS32" s="71"/>
+      <c r="FT32" s="71"/>
+      <c r="FU32" s="71"/>
+      <c r="FV32" s="71"/>
+      <c r="FW32" s="71"/>
+      <c r="FX32" s="71"/>
+      <c r="FY32" s="71"/>
+      <c r="FZ32" s="71"/>
+      <c r="GA32" s="71"/>
+      <c r="GB32" s="71"/>
+      <c r="GC32" s="71"/>
+      <c r="GD32" s="71"/>
+      <c r="GE32" s="71"/>
+      <c r="GF32" s="71"/>
+      <c r="GG32" s="71"/>
+      <c r="GH32" s="71"/>
+      <c r="GI32" s="71"/>
+      <c r="GJ32" s="71"/>
+      <c r="GK32" s="71"/>
+      <c r="GL32" s="71"/>
+      <c r="GM32" s="71"/>
+      <c r="GN32" s="71"/>
+      <c r="GO32" s="71"/>
+      <c r="GP32" s="71"/>
+      <c r="GQ32" s="71"/>
+      <c r="GR32" s="71"/>
+      <c r="GS32" s="71"/>
+      <c r="GT32" s="71"/>
+      <c r="GU32" s="71"/>
+      <c r="GV32" s="71"/>
+      <c r="GW32" s="71"/>
+      <c r="GX32" s="71"/>
+      <c r="GY32" s="71"/>
+      <c r="GZ32" s="71"/>
+      <c r="HA32" s="71"/>
+      <c r="HB32" s="71"/>
+      <c r="HC32" s="71"/>
+      <c r="HD32" s="71"/>
+      <c r="HE32" s="71"/>
+      <c r="HF32" s="71"/>
+      <c r="HG32" s="71"/>
+      <c r="HH32" s="71"/>
+      <c r="HI32" s="71"/>
+      <c r="HJ32" s="71"/>
+      <c r="HK32" s="71"/>
+      <c r="HL32" s="71"/>
+      <c r="HM32" s="71"/>
+      <c r="HN32" s="71"/>
+      <c r="HO32" s="71"/>
+      <c r="HP32" s="71"/>
+      <c r="HQ32" s="71"/>
+      <c r="HR32" s="71"/>
+      <c r="HS32" s="71"/>
+      <c r="HT32" s="71"/>
+      <c r="HU32" s="71"/>
+      <c r="HV32" s="71"/>
+      <c r="HW32" s="71"/>
+      <c r="HX32" s="71"/>
+      <c r="HY32" s="71"/>
+      <c r="HZ32" s="71"/>
+      <c r="IA32" s="71"/>
+      <c r="IB32" s="71"/>
+      <c r="IC32" s="71"/>
+      <c r="ID32" s="71"/>
+      <c r="IE32" s="71"/>
+      <c r="IF32" s="71"/>
+      <c r="IG32" s="71"/>
+      <c r="IH32" s="71"/>
+      <c r="II32" s="71"/>
+      <c r="IJ32" s="71"/>
+      <c r="IK32" s="71"/>
+      <c r="IL32" s="71"/>
+      <c r="IM32" s="71"/>
+      <c r="IN32" s="71"/>
+      <c r="IO32" s="71"/>
     </row>
-    <row r="33" spans="1:248" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:249" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="51"/>
       <c r="B33" s="54">
         <v>2005</v>
@@ -23260,8 +23341,11 @@
       <c r="IN33" s="54">
         <v>2025</v>
       </c>
+      <c r="IO33" s="54">
+        <v>2025</v>
+      </c>
     </row>
-    <row r="34" spans="1:248" s="56" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:249" s="56" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="55"/>
       <c r="B34" s="54" t="s">
         <v>24</v>
@@ -24004,8 +24088,11 @@
       <c r="IN34" s="54" t="s">
         <v>30</v>
       </c>
+      <c r="IO34" s="54" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="35" spans="1:248" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>13</v>
       </c>
@@ -24750,8 +24837,11 @@
       <c r="IN35" s="38">
         <v>5.5</v>
       </c>
+      <c r="IO35" s="38">
+        <v>6.1</v>
+      </c>
     </row>
-    <row r="36" spans="1:248" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>14</v>
       </c>
@@ -25496,8 +25586,11 @@
       <c r="IN36" s="38">
         <v>3.4</v>
       </c>
+      <c r="IO36" s="38">
+        <v>3.6</v>
+      </c>
     </row>
-    <row r="37" spans="1:248" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>15</v>
       </c>
@@ -26242,8 +26335,11 @@
       <c r="IN37" s="38">
         <v>5.8</v>
       </c>
+      <c r="IO37" s="38">
+        <v>5.9</v>
+      </c>
     </row>
-    <row r="38" spans="1:248" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>104</v>
       </c>
@@ -26988,8 +27084,11 @@
       <c r="IN38" s="38">
         <v>10</v>
       </c>
+      <c r="IO38" s="38">
+        <v>10.199999999999999</v>
+      </c>
     </row>
-    <row r="39" spans="1:248" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
         <v>16</v>
       </c>
@@ -27731,11 +27830,14 @@
       <c r="IM39" s="38">
         <v>12.1</v>
       </c>
-      <c r="IN39" s="59">
+      <c r="IN39" s="38">
         <v>12.8</v>
       </c>
+      <c r="IO39" s="59">
+        <v>13.3</v>
+      </c>
     </row>
-    <row r="40" spans="1:248" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
         <v>17</v>
       </c>
@@ -28477,11 +28579,14 @@
       <c r="IM40" s="38">
         <v>11.2</v>
       </c>
-      <c r="IN40" s="59">
+      <c r="IN40" s="38">
         <v>11</v>
       </c>
+      <c r="IO40" s="59">
+        <v>10.9</v>
+      </c>
     </row>
-    <row r="41" spans="1:248" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
         <v>18</v>
       </c>
@@ -29223,11 +29328,14 @@
       <c r="IM41" s="38">
         <v>16</v>
       </c>
-      <c r="IN41" s="59">
-        <v>16.399999999999999</v>
+      <c r="IN41" s="38">
+        <v>16.3</v>
+      </c>
+      <c r="IO41" s="59">
+        <v>16.2</v>
       </c>
     </row>
-    <row r="42" spans="1:248" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
         <v>105</v>
       </c>
@@ -29969,11 +30077,14 @@
       <c r="IM42" s="38">
         <v>14.1</v>
       </c>
-      <c r="IN42" s="59">
-        <v>14.3</v>
+      <c r="IN42" s="38">
+        <v>14.2</v>
+      </c>
+      <c r="IO42" s="59">
+        <v>14.2</v>
       </c>
     </row>
-    <row r="44" spans="1:248" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:249" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A44" s="40" t="s">
         <v>88</v>
       </c>
@@ -29984,12 +30095,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:248" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:249" x14ac:dyDescent="0.25">
       <c r="HD45" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:248" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A46" s="41" t="s">
         <v>108</v>
       </c>
@@ -30000,14 +30111,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:248" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:249" x14ac:dyDescent="0.25">
       <c r="K47" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:248" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A48" s="41" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.25">
@@ -30020,11 +30131,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B4:IN4"/>
-    <mergeCell ref="B14:IN14"/>
-    <mergeCell ref="B23:IN23"/>
-    <mergeCell ref="B32:IN32"/>
-    <mergeCell ref="B1:IN1"/>
+    <mergeCell ref="B1:IO1"/>
+    <mergeCell ref="B4:IO4"/>
+    <mergeCell ref="B14:IO14"/>
+    <mergeCell ref="B23:IO23"/>
+    <mergeCell ref="B32:IO32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -30048,90 +30159,90 @@
   <sheetData>
     <row r="1" spans="1:83" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
-      <c r="AL1" s="65"/>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="65"/>
-      <c r="AU1" s="65"/>
-      <c r="AV1" s="65"/>
-      <c r="AW1" s="65"/>
-      <c r="AX1" s="65"/>
-      <c r="AY1" s="65"/>
-      <c r="AZ1" s="65"/>
-      <c r="BA1" s="65"/>
-      <c r="BB1" s="65"/>
-      <c r="BC1" s="65"/>
-      <c r="BD1" s="65"/>
-      <c r="BE1" s="65"/>
-      <c r="BF1" s="65"/>
-      <c r="BG1" s="65"/>
-      <c r="BH1" s="65"/>
-      <c r="BI1" s="65"/>
-      <c r="BJ1" s="65"/>
-      <c r="BK1" s="65"/>
-      <c r="BL1" s="65"/>
-      <c r="BM1" s="65"/>
-      <c r="BN1" s="65"/>
-      <c r="BO1" s="65"/>
-      <c r="BP1" s="65"/>
-      <c r="BQ1" s="65"/>
-      <c r="BR1" s="65"/>
-      <c r="BS1" s="65"/>
-      <c r="BT1" s="65"/>
-      <c r="BU1" s="65"/>
-      <c r="BV1" s="65"/>
-      <c r="BW1" s="65"/>
-      <c r="BX1" s="65"/>
-      <c r="BY1" s="65"/>
-      <c r="BZ1" s="65"/>
-      <c r="CA1" s="65"/>
-      <c r="CB1" s="65"/>
-      <c r="CC1" s="65"/>
-      <c r="CD1" s="65"/>
-      <c r="CE1" s="65"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="63"/>
+      <c r="AO1" s="63"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="63"/>
+      <c r="AR1" s="63"/>
+      <c r="AS1" s="63"/>
+      <c r="AT1" s="63"/>
+      <c r="AU1" s="63"/>
+      <c r="AV1" s="63"/>
+      <c r="AW1" s="63"/>
+      <c r="AX1" s="63"/>
+      <c r="AY1" s="63"/>
+      <c r="AZ1" s="63"/>
+      <c r="BA1" s="63"/>
+      <c r="BB1" s="63"/>
+      <c r="BC1" s="63"/>
+      <c r="BD1" s="63"/>
+      <c r="BE1" s="63"/>
+      <c r="BF1" s="63"/>
+      <c r="BG1" s="63"/>
+      <c r="BH1" s="63"/>
+      <c r="BI1" s="63"/>
+      <c r="BJ1" s="63"/>
+      <c r="BK1" s="63"/>
+      <c r="BL1" s="63"/>
+      <c r="BM1" s="63"/>
+      <c r="BN1" s="63"/>
+      <c r="BO1" s="63"/>
+      <c r="BP1" s="63"/>
+      <c r="BQ1" s="63"/>
+      <c r="BR1" s="63"/>
+      <c r="BS1" s="63"/>
+      <c r="BT1" s="63"/>
+      <c r="BU1" s="63"/>
+      <c r="BV1" s="63"/>
+      <c r="BW1" s="63"/>
+      <c r="BX1" s="63"/>
+      <c r="BY1" s="63"/>
+      <c r="BZ1" s="63"/>
+      <c r="CA1" s="63"/>
+      <c r="CB1" s="63"/>
+      <c r="CC1" s="63"/>
+      <c r="CD1" s="63"/>
+      <c r="CE1" s="63"/>
     </row>
     <row r="2" spans="1:83" s="52" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53"/>
@@ -30633,90 +30744,90 @@
     </row>
     <row r="4" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="66"/>
-      <c r="AJ4" s="66"/>
-      <c r="AK4" s="66"/>
-      <c r="AL4" s="66"/>
-      <c r="AM4" s="66"/>
-      <c r="AN4" s="66"/>
-      <c r="AO4" s="66"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="66"/>
-      <c r="AR4" s="66"/>
-      <c r="AS4" s="66"/>
-      <c r="AT4" s="66"/>
-      <c r="AU4" s="66"/>
-      <c r="AV4" s="66"/>
-      <c r="AW4" s="66"/>
-      <c r="AX4" s="66"/>
-      <c r="AY4" s="66"/>
-      <c r="AZ4" s="66"/>
-      <c r="BA4" s="66"/>
-      <c r="BB4" s="66"/>
-      <c r="BC4" s="66"/>
-      <c r="BD4" s="66"/>
-      <c r="BE4" s="66"/>
-      <c r="BF4" s="66"/>
-      <c r="BG4" s="66"/>
-      <c r="BH4" s="66"/>
-      <c r="BI4" s="66"/>
-      <c r="BJ4" s="66"/>
-      <c r="BK4" s="66"/>
-      <c r="BL4" s="66"/>
-      <c r="BM4" s="66"/>
-      <c r="BN4" s="66"/>
-      <c r="BO4" s="66"/>
-      <c r="BP4" s="66"/>
-      <c r="BQ4" s="66"/>
-      <c r="BR4" s="66"/>
-      <c r="BS4" s="66"/>
-      <c r="BT4" s="66"/>
-      <c r="BU4" s="66"/>
-      <c r="BV4" s="66"/>
-      <c r="BW4" s="66"/>
-      <c r="BX4" s="66"/>
-      <c r="BY4" s="66"/>
-      <c r="BZ4" s="66"/>
-      <c r="CA4" s="66"/>
-      <c r="CB4" s="66"/>
-      <c r="CC4" s="66"/>
-      <c r="CD4" s="66"/>
-      <c r="CE4" s="66"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="64"/>
+      <c r="AA4" s="64"/>
+      <c r="AB4" s="64"/>
+      <c r="AC4" s="64"/>
+      <c r="AD4" s="64"/>
+      <c r="AE4" s="64"/>
+      <c r="AF4" s="64"/>
+      <c r="AG4" s="64"/>
+      <c r="AH4" s="64"/>
+      <c r="AI4" s="64"/>
+      <c r="AJ4" s="64"/>
+      <c r="AK4" s="64"/>
+      <c r="AL4" s="64"/>
+      <c r="AM4" s="64"/>
+      <c r="AN4" s="64"/>
+      <c r="AO4" s="64"/>
+      <c r="AP4" s="64"/>
+      <c r="AQ4" s="64"/>
+      <c r="AR4" s="64"/>
+      <c r="AS4" s="64"/>
+      <c r="AT4" s="64"/>
+      <c r="AU4" s="64"/>
+      <c r="AV4" s="64"/>
+      <c r="AW4" s="64"/>
+      <c r="AX4" s="64"/>
+      <c r="AY4" s="64"/>
+      <c r="AZ4" s="64"/>
+      <c r="BA4" s="64"/>
+      <c r="BB4" s="64"/>
+      <c r="BC4" s="64"/>
+      <c r="BD4" s="64"/>
+      <c r="BE4" s="64"/>
+      <c r="BF4" s="64"/>
+      <c r="BG4" s="64"/>
+      <c r="BH4" s="64"/>
+      <c r="BI4" s="64"/>
+      <c r="BJ4" s="64"/>
+      <c r="BK4" s="64"/>
+      <c r="BL4" s="64"/>
+      <c r="BM4" s="64"/>
+      <c r="BN4" s="64"/>
+      <c r="BO4" s="64"/>
+      <c r="BP4" s="64"/>
+      <c r="BQ4" s="64"/>
+      <c r="BR4" s="64"/>
+      <c r="BS4" s="64"/>
+      <c r="BT4" s="64"/>
+      <c r="BU4" s="64"/>
+      <c r="BV4" s="64"/>
+      <c r="BW4" s="64"/>
+      <c r="BX4" s="64"/>
+      <c r="BY4" s="64"/>
+      <c r="BZ4" s="64"/>
+      <c r="CA4" s="64"/>
+      <c r="CB4" s="64"/>
+      <c r="CC4" s="64"/>
+      <c r="CD4" s="64"/>
+      <c r="CE4" s="64"/>
     </row>
     <row r="5" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -31719,7 +31830,7 @@
         <v>93.0518</v>
       </c>
       <c r="CE8" s="10">
-        <v>80.803428164844334</v>
+        <v>80.803399999999996</v>
       </c>
     </row>
     <row r="9" spans="1:83" x14ac:dyDescent="0.25">
@@ -31970,7 +32081,7 @@
         <v>97.978200000000001</v>
       </c>
       <c r="CE9" s="10">
-        <v>91.761726467466588</v>
+        <v>91.761700000000005</v>
       </c>
     </row>
     <row r="10" spans="1:83" x14ac:dyDescent="0.25">
@@ -32221,7 +32332,7 @@
         <v>12.6595</v>
       </c>
       <c r="CE10" s="11">
-        <v>11.144458092400725</v>
+        <v>11.144500000000001</v>
       </c>
     </row>
     <row r="11" spans="1:83" x14ac:dyDescent="0.25">
@@ -32472,7 +32583,7 @@
         <v>93.0518</v>
       </c>
       <c r="CE11" s="11">
-        <v>86.711628820002716</v>
+        <v>86.711600000000004</v>
       </c>
     </row>
     <row r="12" spans="1:83" x14ac:dyDescent="0.25">
@@ -32723,7 +32834,7 @@
         <v>97.978200000000001</v>
       </c>
       <c r="CE12" s="11">
-        <v>94.819010474115785</v>
+        <v>94.819000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:83" x14ac:dyDescent="0.25">
@@ -32974,95 +33085,95 @@
         <v>12.6595</v>
       </c>
       <c r="CE13" s="11">
-        <v>11.87786702331001</v>
+        <v>11.8779</v>
       </c>
     </row>
     <row r="14" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="67"/>
-      <c r="W14" s="67"/>
-      <c r="X14" s="67"/>
-      <c r="Y14" s="67"/>
-      <c r="Z14" s="67"/>
-      <c r="AA14" s="67"/>
-      <c r="AB14" s="67"/>
-      <c r="AC14" s="67"/>
-      <c r="AD14" s="67"/>
-      <c r="AE14" s="67"/>
-      <c r="AF14" s="67"/>
-      <c r="AG14" s="67"/>
-      <c r="AH14" s="67"/>
-      <c r="AI14" s="67"/>
-      <c r="AJ14" s="67"/>
-      <c r="AK14" s="67"/>
-      <c r="AL14" s="67"/>
-      <c r="AM14" s="67"/>
-      <c r="AN14" s="67"/>
-      <c r="AO14" s="67"/>
-      <c r="AP14" s="67"/>
-      <c r="AQ14" s="67"/>
-      <c r="AR14" s="67"/>
-      <c r="AS14" s="67"/>
-      <c r="AT14" s="67"/>
-      <c r="AU14" s="67"/>
-      <c r="AV14" s="67"/>
-      <c r="AW14" s="67"/>
-      <c r="AX14" s="67"/>
-      <c r="AY14" s="67"/>
-      <c r="AZ14" s="67"/>
-      <c r="BA14" s="67"/>
-      <c r="BB14" s="67"/>
-      <c r="BC14" s="67"/>
-      <c r="BD14" s="67"/>
-      <c r="BE14" s="67"/>
-      <c r="BF14" s="67"/>
-      <c r="BG14" s="67"/>
-      <c r="BH14" s="67"/>
-      <c r="BI14" s="67"/>
-      <c r="BJ14" s="67"/>
-      <c r="BK14" s="67"/>
-      <c r="BL14" s="67"/>
-      <c r="BM14" s="67"/>
-      <c r="BN14" s="67"/>
-      <c r="BO14" s="67"/>
-      <c r="BP14" s="67"/>
-      <c r="BQ14" s="67"/>
-      <c r="BR14" s="67"/>
-      <c r="BS14" s="67"/>
-      <c r="BT14" s="67"/>
-      <c r="BU14" s="67"/>
-      <c r="BV14" s="67"/>
-      <c r="BW14" s="67"/>
-      <c r="BX14" s="67"/>
-      <c r="BY14" s="67"/>
-      <c r="BZ14" s="67"/>
-      <c r="CA14" s="67"/>
-      <c r="CB14" s="67"/>
-      <c r="CC14" s="67"/>
-      <c r="CD14" s="67"/>
-      <c r="CE14" s="67"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="65"/>
+      <c r="W14" s="65"/>
+      <c r="X14" s="65"/>
+      <c r="Y14" s="65"/>
+      <c r="Z14" s="65"/>
+      <c r="AA14" s="65"/>
+      <c r="AB14" s="65"/>
+      <c r="AC14" s="65"/>
+      <c r="AD14" s="65"/>
+      <c r="AE14" s="65"/>
+      <c r="AF14" s="65"/>
+      <c r="AG14" s="65"/>
+      <c r="AH14" s="65"/>
+      <c r="AI14" s="65"/>
+      <c r="AJ14" s="65"/>
+      <c r="AK14" s="65"/>
+      <c r="AL14" s="65"/>
+      <c r="AM14" s="65"/>
+      <c r="AN14" s="65"/>
+      <c r="AO14" s="65"/>
+      <c r="AP14" s="65"/>
+      <c r="AQ14" s="65"/>
+      <c r="AR14" s="65"/>
+      <c r="AS14" s="65"/>
+      <c r="AT14" s="65"/>
+      <c r="AU14" s="65"/>
+      <c r="AV14" s="65"/>
+      <c r="AW14" s="65"/>
+      <c r="AX14" s="65"/>
+      <c r="AY14" s="65"/>
+      <c r="AZ14" s="65"/>
+      <c r="BA14" s="65"/>
+      <c r="BB14" s="65"/>
+      <c r="BC14" s="65"/>
+      <c r="BD14" s="65"/>
+      <c r="BE14" s="65"/>
+      <c r="BF14" s="65"/>
+      <c r="BG14" s="65"/>
+      <c r="BH14" s="65"/>
+      <c r="BI14" s="65"/>
+      <c r="BJ14" s="65"/>
+      <c r="BK14" s="65"/>
+      <c r="BL14" s="65"/>
+      <c r="BM14" s="65"/>
+      <c r="BN14" s="65"/>
+      <c r="BO14" s="65"/>
+      <c r="BP14" s="65"/>
+      <c r="BQ14" s="65"/>
+      <c r="BR14" s="65"/>
+      <c r="BS14" s="65"/>
+      <c r="BT14" s="65"/>
+      <c r="BU14" s="65"/>
+      <c r="BV14" s="65"/>
+      <c r="BW14" s="65"/>
+      <c r="BX14" s="65"/>
+      <c r="BY14" s="65"/>
+      <c r="BZ14" s="65"/>
+      <c r="CA14" s="65"/>
+      <c r="CB14" s="65"/>
+      <c r="CC14" s="65"/>
+      <c r="CD14" s="65"/>
+      <c r="CE14" s="65"/>
     </row>
     <row r="15" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
@@ -35074,90 +35185,90 @@
     </row>
     <row r="23" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="66"/>
-      <c r="U23" s="66"/>
-      <c r="V23" s="66"/>
-      <c r="W23" s="66"/>
-      <c r="X23" s="66"/>
-      <c r="Y23" s="66"/>
-      <c r="Z23" s="66"/>
-      <c r="AA23" s="66"/>
-      <c r="AB23" s="66"/>
-      <c r="AC23" s="66"/>
-      <c r="AD23" s="66"/>
-      <c r="AE23" s="66"/>
-      <c r="AF23" s="66"/>
-      <c r="AG23" s="66"/>
-      <c r="AH23" s="66"/>
-      <c r="AI23" s="66"/>
-      <c r="AJ23" s="66"/>
-      <c r="AK23" s="66"/>
-      <c r="AL23" s="66"/>
-      <c r="AM23" s="66"/>
-      <c r="AN23" s="66"/>
-      <c r="AO23" s="66"/>
-      <c r="AP23" s="66"/>
-      <c r="AQ23" s="66"/>
-      <c r="AR23" s="66"/>
-      <c r="AS23" s="66"/>
-      <c r="AT23" s="66"/>
-      <c r="AU23" s="66"/>
-      <c r="AV23" s="66"/>
-      <c r="AW23" s="66"/>
-      <c r="AX23" s="66"/>
-      <c r="AY23" s="66"/>
-      <c r="AZ23" s="66"/>
-      <c r="BA23" s="66"/>
-      <c r="BB23" s="66"/>
-      <c r="BC23" s="66"/>
-      <c r="BD23" s="66"/>
-      <c r="BE23" s="66"/>
-      <c r="BF23" s="66"/>
-      <c r="BG23" s="66"/>
-      <c r="BH23" s="66"/>
-      <c r="BI23" s="66"/>
-      <c r="BJ23" s="66"/>
-      <c r="BK23" s="66"/>
-      <c r="BL23" s="66"/>
-      <c r="BM23" s="66"/>
-      <c r="BN23" s="66"/>
-      <c r="BO23" s="66"/>
-      <c r="BP23" s="66"/>
-      <c r="BQ23" s="66"/>
-      <c r="BR23" s="66"/>
-      <c r="BS23" s="66"/>
-      <c r="BT23" s="66"/>
-      <c r="BU23" s="66"/>
-      <c r="BV23" s="66"/>
-      <c r="BW23" s="66"/>
-      <c r="BX23" s="66"/>
-      <c r="BY23" s="66"/>
-      <c r="BZ23" s="66"/>
-      <c r="CA23" s="66"/>
-      <c r="CB23" s="66"/>
-      <c r="CC23" s="66"/>
-      <c r="CD23" s="66"/>
-      <c r="CE23" s="66"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="64"/>
+      <c r="T23" s="64"/>
+      <c r="U23" s="64"/>
+      <c r="V23" s="64"/>
+      <c r="W23" s="64"/>
+      <c r="X23" s="64"/>
+      <c r="Y23" s="64"/>
+      <c r="Z23" s="64"/>
+      <c r="AA23" s="64"/>
+      <c r="AB23" s="64"/>
+      <c r="AC23" s="64"/>
+      <c r="AD23" s="64"/>
+      <c r="AE23" s="64"/>
+      <c r="AF23" s="64"/>
+      <c r="AG23" s="64"/>
+      <c r="AH23" s="64"/>
+      <c r="AI23" s="64"/>
+      <c r="AJ23" s="64"/>
+      <c r="AK23" s="64"/>
+      <c r="AL23" s="64"/>
+      <c r="AM23" s="64"/>
+      <c r="AN23" s="64"/>
+      <c r="AO23" s="64"/>
+      <c r="AP23" s="64"/>
+      <c r="AQ23" s="64"/>
+      <c r="AR23" s="64"/>
+      <c r="AS23" s="64"/>
+      <c r="AT23" s="64"/>
+      <c r="AU23" s="64"/>
+      <c r="AV23" s="64"/>
+      <c r="AW23" s="64"/>
+      <c r="AX23" s="64"/>
+      <c r="AY23" s="64"/>
+      <c r="AZ23" s="64"/>
+      <c r="BA23" s="64"/>
+      <c r="BB23" s="64"/>
+      <c r="BC23" s="64"/>
+      <c r="BD23" s="64"/>
+      <c r="BE23" s="64"/>
+      <c r="BF23" s="64"/>
+      <c r="BG23" s="64"/>
+      <c r="BH23" s="64"/>
+      <c r="BI23" s="64"/>
+      <c r="BJ23" s="64"/>
+      <c r="BK23" s="64"/>
+      <c r="BL23" s="64"/>
+      <c r="BM23" s="64"/>
+      <c r="BN23" s="64"/>
+      <c r="BO23" s="64"/>
+      <c r="BP23" s="64"/>
+      <c r="BQ23" s="64"/>
+      <c r="BR23" s="64"/>
+      <c r="BS23" s="64"/>
+      <c r="BT23" s="64"/>
+      <c r="BU23" s="64"/>
+      <c r="BV23" s="64"/>
+      <c r="BW23" s="64"/>
+      <c r="BX23" s="64"/>
+      <c r="BY23" s="64"/>
+      <c r="BZ23" s="64"/>
+      <c r="CA23" s="64"/>
+      <c r="CB23" s="64"/>
+      <c r="CC23" s="64"/>
+      <c r="CD23" s="64"/>
+      <c r="CE23" s="64"/>
     </row>
     <row r="24" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
@@ -37169,90 +37280,90 @@
     </row>
     <row r="32" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="34"/>
-      <c r="B32" s="67" t="s">
+      <c r="B32" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="67"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="67"/>
-      <c r="P32" s="67"/>
-      <c r="Q32" s="67"/>
-      <c r="R32" s="67"/>
-      <c r="S32" s="67"/>
-      <c r="T32" s="67"/>
-      <c r="U32" s="67"/>
-      <c r="V32" s="67"/>
-      <c r="W32" s="67"/>
-      <c r="X32" s="67"/>
-      <c r="Y32" s="67"/>
-      <c r="Z32" s="67"/>
-      <c r="AA32" s="67"/>
-      <c r="AB32" s="67"/>
-      <c r="AC32" s="67"/>
-      <c r="AD32" s="67"/>
-      <c r="AE32" s="67"/>
-      <c r="AF32" s="67"/>
-      <c r="AG32" s="67"/>
-      <c r="AH32" s="67"/>
-      <c r="AI32" s="67"/>
-      <c r="AJ32" s="67"/>
-      <c r="AK32" s="67"/>
-      <c r="AL32" s="67"/>
-      <c r="AM32" s="67"/>
-      <c r="AN32" s="67"/>
-      <c r="AO32" s="67"/>
-      <c r="AP32" s="67"/>
-      <c r="AQ32" s="67"/>
-      <c r="AR32" s="67"/>
-      <c r="AS32" s="67"/>
-      <c r="AT32" s="67"/>
-      <c r="AU32" s="67"/>
-      <c r="AV32" s="67"/>
-      <c r="AW32" s="67"/>
-      <c r="AX32" s="67"/>
-      <c r="AY32" s="67"/>
-      <c r="AZ32" s="67"/>
-      <c r="BA32" s="67"/>
-      <c r="BB32" s="67"/>
-      <c r="BC32" s="67"/>
-      <c r="BD32" s="67"/>
-      <c r="BE32" s="67"/>
-      <c r="BF32" s="67"/>
-      <c r="BG32" s="67"/>
-      <c r="BH32" s="67"/>
-      <c r="BI32" s="67"/>
-      <c r="BJ32" s="67"/>
-      <c r="BK32" s="67"/>
-      <c r="BL32" s="67"/>
-      <c r="BM32" s="67"/>
-      <c r="BN32" s="67"/>
-      <c r="BO32" s="67"/>
-      <c r="BP32" s="67"/>
-      <c r="BQ32" s="67"/>
-      <c r="BR32" s="67"/>
-      <c r="BS32" s="67"/>
-      <c r="BT32" s="67"/>
-      <c r="BU32" s="67"/>
-      <c r="BV32" s="67"/>
-      <c r="BW32" s="67"/>
-      <c r="BX32" s="67"/>
-      <c r="BY32" s="67"/>
-      <c r="BZ32" s="67"/>
-      <c r="CA32" s="67"/>
-      <c r="CB32" s="67"/>
-      <c r="CC32" s="67"/>
-      <c r="CD32" s="67"/>
-      <c r="CE32" s="67"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="65"/>
+      <c r="N32" s="65"/>
+      <c r="O32" s="65"/>
+      <c r="P32" s="65"/>
+      <c r="Q32" s="65"/>
+      <c r="R32" s="65"/>
+      <c r="S32" s="65"/>
+      <c r="T32" s="65"/>
+      <c r="U32" s="65"/>
+      <c r="V32" s="65"/>
+      <c r="W32" s="65"/>
+      <c r="X32" s="65"/>
+      <c r="Y32" s="65"/>
+      <c r="Z32" s="65"/>
+      <c r="AA32" s="65"/>
+      <c r="AB32" s="65"/>
+      <c r="AC32" s="65"/>
+      <c r="AD32" s="65"/>
+      <c r="AE32" s="65"/>
+      <c r="AF32" s="65"/>
+      <c r="AG32" s="65"/>
+      <c r="AH32" s="65"/>
+      <c r="AI32" s="65"/>
+      <c r="AJ32" s="65"/>
+      <c r="AK32" s="65"/>
+      <c r="AL32" s="65"/>
+      <c r="AM32" s="65"/>
+      <c r="AN32" s="65"/>
+      <c r="AO32" s="65"/>
+      <c r="AP32" s="65"/>
+      <c r="AQ32" s="65"/>
+      <c r="AR32" s="65"/>
+      <c r="AS32" s="65"/>
+      <c r="AT32" s="65"/>
+      <c r="AU32" s="65"/>
+      <c r="AV32" s="65"/>
+      <c r="AW32" s="65"/>
+      <c r="AX32" s="65"/>
+      <c r="AY32" s="65"/>
+      <c r="AZ32" s="65"/>
+      <c r="BA32" s="65"/>
+      <c r="BB32" s="65"/>
+      <c r="BC32" s="65"/>
+      <c r="BD32" s="65"/>
+      <c r="BE32" s="65"/>
+      <c r="BF32" s="65"/>
+      <c r="BG32" s="65"/>
+      <c r="BH32" s="65"/>
+      <c r="BI32" s="65"/>
+      <c r="BJ32" s="65"/>
+      <c r="BK32" s="65"/>
+      <c r="BL32" s="65"/>
+      <c r="BM32" s="65"/>
+      <c r="BN32" s="65"/>
+      <c r="BO32" s="65"/>
+      <c r="BP32" s="65"/>
+      <c r="BQ32" s="65"/>
+      <c r="BR32" s="65"/>
+      <c r="BS32" s="65"/>
+      <c r="BT32" s="65"/>
+      <c r="BU32" s="65"/>
+      <c r="BV32" s="65"/>
+      <c r="BW32" s="65"/>
+      <c r="BX32" s="65"/>
+      <c r="BY32" s="65"/>
+      <c r="BZ32" s="65"/>
+      <c r="CA32" s="65"/>
+      <c r="CB32" s="65"/>
+      <c r="CC32" s="65"/>
+      <c r="CD32" s="65"/>
+      <c r="CE32" s="65"/>
     </row>
     <row r="33" spans="1:83" s="52" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="53"/>
@@ -39826,54 +39937,54 @@
   <sheetData>
     <row r="1" spans="1:19" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47"/>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="70"/>
+      <c r="A3" s="68"/>
       <c r="B3" s="48">
         <v>2005</v>
       </c>
